--- a/project-report-docs/test_cases.xlsx
+++ b/project-report-docs/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qubstudentcloud-my.sharepoint.com/personal/40099112_ads_qub_ac_uk/Documents/Final_Year_Project/project-report-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="8_{4D93CBBD-AE6D-43B3-B450-5369D0B369E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026C8F7D-035B-4187-B3C5-15D1CEF99AE6}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="8_{4D93CBBD-AE6D-43B3-B450-5369D0B369E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA6620E-CB55-4B51-8D0F-2DE646E4C000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{711425FD-B148-439F-8D10-23A5D508D490}"/>
+    <workbookView xWindow="38280" yWindow="915" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{711425FD-B148-439F-8D10-23A5D508D490}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="237">
   <si>
     <t>Project Name:</t>
   </si>
@@ -631,6 +631,132 @@
   </si>
   <si>
     <t>Bulb should flicker in time with the music</t>
+  </si>
+  <si>
+    <t>Load FAQ</t>
+  </si>
+  <si>
+    <t>Load FAQ page</t>
+  </si>
+  <si>
+    <t>Load new browser</t>
+  </si>
+  <si>
+    <t>Wait for DOM loaded</t>
+  </si>
+  <si>
+    <t>Assert url has 'faq' in it</t>
+  </si>
+  <si>
+    <t>url contains 'faq'</t>
+  </si>
+  <si>
+    <t>Assert 'Frequently Asked Questions' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Assert 'Technical Questions' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Assert 'Troubleshooting' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Technical Questions' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Troubleshooting' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Navigate from Index to FAQ</t>
+  </si>
+  <si>
+    <t>Load Index page</t>
+  </si>
+  <si>
+    <t>Assert index page, passes tests</t>
+  </si>
+  <si>
+    <t>index page passes tests</t>
+  </si>
+  <si>
+    <t>Click on 'faq' button</t>
+  </si>
+  <si>
+    <t>Load About page</t>
+  </si>
+  <si>
+    <t>Load About</t>
+  </si>
+  <si>
+    <t>Assert url has 'about' in it</t>
+  </si>
+  <si>
+    <t>url contains 'about'</t>
+  </si>
+  <si>
+    <t>Assert 'About' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>About' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Assert 'The Project' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>The Project' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Assert 'The Author' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>The Author' title is loaded and visible</t>
+  </si>
+  <si>
+    <t>Navigate from Index to About</t>
+  </si>
+  <si>
+    <t>Click on 'about' button</t>
+  </si>
+  <si>
+    <t>Assert about page, passes tests</t>
+  </si>
+  <si>
+    <t>about page passes tests</t>
+  </si>
+  <si>
+    <t>Assert faq page, passes tests</t>
+  </si>
+  <si>
+    <t>faq page passes tests</t>
+  </si>
+  <si>
+    <t>Assert 'about' page passes tests</t>
+  </si>
+  <si>
+    <t>about' page passes tests</t>
+  </si>
+  <si>
+    <t>Navigate from About to Index</t>
+  </si>
+  <si>
+    <t>Assert 'index' page passes tests</t>
+  </si>
+  <si>
+    <t>index' page passes tests</t>
+  </si>
+  <si>
+    <t>Navigate from Faq to Index</t>
+  </si>
+  <si>
+    <t>Navigate from FAQ to Index</t>
+  </si>
+  <si>
+    <t>Click on 'home' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -910,7 +1036,427 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="286">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3783,62 +4329,62 @@
     <mergeCell ref="F86:F88"/>
   </mergeCells>
   <conditionalFormatting sqref="A36:B36 D36:G36">
-    <cfRule type="notContainsBlanks" dxfId="224" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="285" priority="11">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41 D41:G41">
-    <cfRule type="notContainsBlanks" dxfId="223" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="284" priority="10">
       <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46 D46:G46">
-    <cfRule type="notContainsBlanks" dxfId="222" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="283" priority="9">
       <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51 D51:G51">
-    <cfRule type="notContainsBlanks" dxfId="221" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="282" priority="8">
       <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56 D56:G56">
-    <cfRule type="notContainsBlanks" dxfId="220" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="281" priority="7">
       <formula>LEN(TRIM(A56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61 D61:G61">
-    <cfRule type="notContainsBlanks" dxfId="219" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="280" priority="6">
       <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B66 D66:G66">
-    <cfRule type="notContainsBlanks" dxfId="218" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="279" priority="5">
       <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 D71:G71">
-    <cfRule type="notContainsBlanks" dxfId="217" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="278" priority="4">
       <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 D76:G76">
-    <cfRule type="notContainsBlanks" dxfId="216" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="277" priority="3">
       <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B81 D81:G81">
-    <cfRule type="notContainsBlanks" dxfId="215" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="276" priority="2">
       <formula>LEN(TRIM(A81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:B86 D86:G86">
-    <cfRule type="notContainsBlanks" dxfId="214" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="275" priority="1">
       <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 E5 B7 E7 B9:E9 B11 B13 B17 B21 B25 A31:B31 D31:G31">
-    <cfRule type="notContainsBlanks" dxfId="213" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="274" priority="28">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3859,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF324A3A-26E2-41B1-988D-72F185195E69}">
-  <dimension ref="A1:BL317"/>
+  <dimension ref="A1:CB317"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView topLeftCell="A259" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279:H317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,22 +4440,31 @@
     <col min="36" max="37" width="93.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="45" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" x14ac:dyDescent="0.3">
@@ -4264,7 +4819,7 @@
       <c r="P16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -7268,11 +7823,11 @@
       <c r="M112" s="13"/>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H113" s="3"/>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>10</v>
       </c>
@@ -7294,7 +7849,7 @@
       <c r="M114" s="25"/>
       <c r="P114" s="3"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
@@ -7306,7 +7861,7 @@
       <c r="M115" s="25"/>
       <c r="P115" s="3"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
@@ -7318,11 +7873,11 @@
       <c r="M116" s="25"/>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H117" s="3"/>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>11</v>
       </c>
@@ -7344,7 +7899,7 @@
       <c r="M118" s="25"/>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
@@ -7356,7 +7911,7 @@
       <c r="M119" s="25"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -7368,19 +7923,19 @@
       <c r="M120" s="25"/>
       <c r="P120" s="3"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H121" s="3"/>
       <c r="P121" s="3"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H122" s="3"/>
       <c r="P122" s="3"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H123" s="3"/>
       <c r="P123" s="3"/>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>12</v>
       </c>
@@ -7420,7 +7975,7 @@
       </c>
       <c r="P124" s="3"/>
     </row>
-    <row r="125" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:80" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>1</v>
       </c>
@@ -7458,7 +8013,7 @@
       <c r="O125" s="13"/>
       <c r="P125" s="14"/>
     </row>
-    <row r="126" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:80" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -7476,7 +8031,7 @@
       <c r="O126" s="13"/>
       <c r="P126" s="14"/>
     </row>
-    <row r="127" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:80" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -7494,7 +8049,7 @@
       <c r="O127" s="13"/>
       <c r="P127" s="14"/>
     </row>
-    <row r="128" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:80" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
         <v>0</v>
       </c>
@@ -7543,8 +8098,80 @@
       <c r="AD128" s="29"/>
       <c r="AE128" s="29"/>
       <c r="AF128" s="30"/>
-    </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG128" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="26"/>
+      <c r="AI128" s="27"/>
+      <c r="AJ128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK128" s="29"/>
+      <c r="AL128" s="29"/>
+      <c r="AM128" s="29"/>
+      <c r="AN128" s="30"/>
+      <c r="AO128" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP128" s="26"/>
+      <c r="AQ128" s="27"/>
+      <c r="AR128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS128" s="29"/>
+      <c r="AT128" s="29"/>
+      <c r="AU128" s="29"/>
+      <c r="AV128" s="30"/>
+      <c r="AW128" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX128" s="26"/>
+      <c r="AY128" s="27"/>
+      <c r="AZ128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA128" s="29"/>
+      <c r="BB128" s="29"/>
+      <c r="BC128" s="29"/>
+      <c r="BD128" s="30"/>
+      <c r="BE128" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF128" s="26"/>
+      <c r="BG128" s="27"/>
+      <c r="BH128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI128" s="29"/>
+      <c r="BJ128" s="29"/>
+      <c r="BK128" s="29"/>
+      <c r="BL128" s="30"/>
+      <c r="BM128" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN128" s="26"/>
+      <c r="BO128" s="27"/>
+      <c r="BP128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ128" s="29"/>
+      <c r="BR128" s="29"/>
+      <c r="BS128" s="29"/>
+      <c r="BT128" s="30"/>
+      <c r="BU128" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="BV128" s="26"/>
+      <c r="BW128" s="27"/>
+      <c r="BX128" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY128" s="29"/>
+      <c r="BZ128" s="29"/>
+      <c r="CA128" s="29"/>
+      <c r="CB128" s="30"/>
+    </row>
+    <row r="129" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7577,8 +8204,56 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="2"/>
-    </row>
-    <row r="130" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="2"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="1"/>
+      <c r="AV129" s="2"/>
+      <c r="AW129" s="1"/>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="1"/>
+      <c r="BA129" s="1"/>
+      <c r="BB129" s="1"/>
+      <c r="BC129" s="1"/>
+      <c r="BD129" s="2"/>
+      <c r="BE129" s="1"/>
+      <c r="BF129" s="1"/>
+      <c r="BG129" s="1"/>
+      <c r="BH129" s="1"/>
+      <c r="BI129" s="1"/>
+      <c r="BJ129" s="1"/>
+      <c r="BK129" s="1"/>
+      <c r="BL129" s="2"/>
+      <c r="BM129" s="1"/>
+      <c r="BN129" s="1"/>
+      <c r="BO129" s="1"/>
+      <c r="BP129" s="1"/>
+      <c r="BQ129" s="1"/>
+      <c r="BR129" s="1"/>
+      <c r="BS129" s="1"/>
+      <c r="BT129" s="2"/>
+      <c r="BU129" s="1"/>
+      <c r="BV129" s="1"/>
+      <c r="BW129" s="1"/>
+      <c r="BX129" s="1"/>
+      <c r="BY129" s="1"/>
+      <c r="BZ129" s="1"/>
+      <c r="CA129" s="1"/>
+      <c r="CB129" s="2"/>
+    </row>
+    <row r="130" spans="1:80" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A130" s="22" t="s">
         <v>33</v>
       </c>
@@ -7619,14 +8294,80 @@
       <c r="AD130" s="22"/>
       <c r="AE130" s="22"/>
       <c r="AF130" s="23"/>
-    </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH130" s="22"/>
+      <c r="AI130" s="22"/>
+      <c r="AJ130" s="22"/>
+      <c r="AK130" s="22"/>
+      <c r="AL130" s="22"/>
+      <c r="AM130" s="22"/>
+      <c r="AN130" s="23"/>
+      <c r="AO130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP130" s="22"/>
+      <c r="AQ130" s="22"/>
+      <c r="AR130" s="22"/>
+      <c r="AS130" s="22"/>
+      <c r="AT130" s="22"/>
+      <c r="AU130" s="22"/>
+      <c r="AV130" s="23"/>
+      <c r="AW130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX130" s="22"/>
+      <c r="AY130" s="22"/>
+      <c r="AZ130" s="22"/>
+      <c r="BA130" s="22"/>
+      <c r="BB130" s="22"/>
+      <c r="BC130" s="22"/>
+      <c r="BD130" s="23"/>
+      <c r="BE130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF130" s="22"/>
+      <c r="BG130" s="22"/>
+      <c r="BH130" s="22"/>
+      <c r="BI130" s="22"/>
+      <c r="BJ130" s="22"/>
+      <c r="BK130" s="22"/>
+      <c r="BL130" s="23"/>
+      <c r="BM130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN130" s="22"/>
+      <c r="BO130" s="22"/>
+      <c r="BP130" s="22"/>
+      <c r="BQ130" s="22"/>
+      <c r="BR130" s="22"/>
+      <c r="BS130" s="22"/>
+      <c r="BT130" s="23"/>
+      <c r="BU130" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV130" s="22"/>
+      <c r="BW130" s="22"/>
+      <c r="BX130" s="22"/>
+      <c r="BY130" s="22"/>
+      <c r="BZ130" s="22"/>
+      <c r="CA130" s="22"/>
+      <c r="CB130" s="23"/>
+    </row>
+    <row r="131" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H131" s="3"/>
       <c r="P131" s="3"/>
       <c r="X131" s="3"/>
       <c r="AF131" s="3"/>
-    </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN131" s="3"/>
+      <c r="AV131" s="3"/>
+      <c r="BD131" s="3"/>
+      <c r="BL131" s="3"/>
+      <c r="BT131" s="3"/>
+      <c r="CB131" s="3"/>
+    </row>
+    <row r="132" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -7638,7 +8379,7 @@
         <v>18</v>
       </c>
       <c r="E132" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="5" t="s">
@@ -7652,7 +8393,7 @@
         <v>18</v>
       </c>
       <c r="M132" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="5" t="s">
@@ -7666,7 +8407,7 @@
         <v>18</v>
       </c>
       <c r="U132" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X132" s="3"/>
       <c r="Y132" s="5" t="s">
@@ -7680,17 +8421,107 @@
         <v>18</v>
       </c>
       <c r="AC132" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF132" s="3"/>
+      <c r="AG132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH132" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI132" s="20"/>
+      <c r="AJ132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK132" s="4">
         <v>1</v>
       </c>
-      <c r="AF132" s="3"/>
-    </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN132" s="3"/>
+      <c r="AO132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP132" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ132" s="20"/>
+      <c r="AR132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS132" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV132" s="3"/>
+      <c r="AW132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX132" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY132" s="20"/>
+      <c r="AZ132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD132" s="3"/>
+      <c r="BE132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF132" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG132" s="20"/>
+      <c r="BH132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL132" s="3"/>
+      <c r="BM132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN132" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO132" s="20"/>
+      <c r="BP132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT132" s="3"/>
+      <c r="BU132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV132" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW132" s="20"/>
+      <c r="BX132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY132" s="4">
+        <v>1</v>
+      </c>
+      <c r="CB132" s="3"/>
+    </row>
+    <row r="133" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H133" s="3"/>
       <c r="P133" s="3"/>
       <c r="X133" s="3"/>
       <c r="AF133" s="3"/>
-    </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN133" s="3"/>
+      <c r="AV133" s="3"/>
+      <c r="BD133" s="3"/>
+      <c r="BL133" s="3"/>
+      <c r="BT133" s="3"/>
+      <c r="CB133" s="3"/>
+    </row>
+    <row r="134" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>4</v>
       </c>
@@ -7747,14 +8578,104 @@
         <v>4</v>
       </c>
       <c r="AF134" s="3"/>
-    </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI134" s="20"/>
+      <c r="AJ134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK134" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN134" s="3"/>
+      <c r="AO134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ134" s="20"/>
+      <c r="AR134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS134" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV134" s="3"/>
+      <c r="AW134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY134" s="20"/>
+      <c r="AZ134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA134" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD134" s="3"/>
+      <c r="BE134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG134" s="20"/>
+      <c r="BH134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI134" s="4">
+        <v>4</v>
+      </c>
+      <c r="BL134" s="3"/>
+      <c r="BM134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO134" s="20"/>
+      <c r="BP134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ134" s="4">
+        <v>4</v>
+      </c>
+      <c r="BT134" s="3"/>
+      <c r="BU134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV134" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW134" s="20"/>
+      <c r="BX134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY134" s="4">
+        <v>4</v>
+      </c>
+      <c r="CB134" s="3"/>
+    </row>
+    <row r="135" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H135" s="3"/>
       <c r="P135" s="3"/>
       <c r="X135" s="3"/>
       <c r="AF135" s="3"/>
-    </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN135" s="3"/>
+      <c r="AV135" s="3"/>
+      <c r="BD135" s="3"/>
+      <c r="BL135" s="3"/>
+      <c r="BT135" s="3"/>
+      <c r="CB135" s="3"/>
+    </row>
+    <row r="136" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>7</v>
       </c>
@@ -7795,14 +8716,80 @@
       <c r="AB136" s="20"/>
       <c r="AC136" s="20"/>
       <c r="AF136" s="3"/>
-    </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI136" s="20"/>
+      <c r="AJ136" s="20"/>
+      <c r="AK136" s="20"/>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ136" s="20"/>
+      <c r="AR136" s="20"/>
+      <c r="AS136" s="20"/>
+      <c r="AV136" s="3"/>
+      <c r="AW136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY136" s="20"/>
+      <c r="AZ136" s="20"/>
+      <c r="BA136" s="20"/>
+      <c r="BD136" s="3"/>
+      <c r="BE136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG136" s="20"/>
+      <c r="BH136" s="20"/>
+      <c r="BI136" s="20"/>
+      <c r="BL136" s="3"/>
+      <c r="BM136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO136" s="20"/>
+      <c r="BP136" s="20"/>
+      <c r="BQ136" s="20"/>
+      <c r="BT136" s="3"/>
+      <c r="BU136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV136" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW136" s="20"/>
+      <c r="BX136" s="20"/>
+      <c r="BY136" s="20"/>
+      <c r="CB136" s="3"/>
+    </row>
+    <row r="137" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H137" s="3"/>
       <c r="P137" s="3"/>
       <c r="X137" s="3"/>
       <c r="AF137" s="3"/>
-    </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN137" s="3"/>
+      <c r="AV137" s="3"/>
+      <c r="BD137" s="3"/>
+      <c r="BL137" s="3"/>
+      <c r="BT137" s="3"/>
+      <c r="CB137" s="3"/>
+    </row>
+    <row r="138" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>19</v>
       </c>
@@ -7843,14 +8830,80 @@
       <c r="AB138" s="21"/>
       <c r="AC138" s="21"/>
       <c r="AF138" s="3"/>
-    </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="AI138" s="21"/>
+      <c r="AJ138" s="21"/>
+      <c r="AK138" s="21"/>
+      <c r="AN138" s="3"/>
+      <c r="AO138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="AQ138" s="21"/>
+      <c r="AR138" s="21"/>
+      <c r="AS138" s="21"/>
+      <c r="AV138" s="3"/>
+      <c r="AW138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="AY138" s="21"/>
+      <c r="AZ138" s="21"/>
+      <c r="BA138" s="21"/>
+      <c r="BD138" s="3"/>
+      <c r="BE138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="BG138" s="21"/>
+      <c r="BH138" s="21"/>
+      <c r="BI138" s="21"/>
+      <c r="BL138" s="3"/>
+      <c r="BM138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="BO138" s="21"/>
+      <c r="BP138" s="21"/>
+      <c r="BQ138" s="21"/>
+      <c r="BT138" s="3"/>
+      <c r="BU138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV138" s="21">
+        <v>45756</v>
+      </c>
+      <c r="BW138" s="21"/>
+      <c r="BX138" s="21"/>
+      <c r="BY138" s="21"/>
+      <c r="CB138" s="3"/>
+    </row>
+    <row r="139" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H139" s="3"/>
       <c r="P139" s="3"/>
       <c r="X139" s="3"/>
       <c r="AF139" s="3"/>
-    </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN139" s="3"/>
+      <c r="AV139" s="3"/>
+      <c r="BD139" s="3"/>
+      <c r="BL139" s="3"/>
+      <c r="BT139" s="3"/>
+      <c r="CB139" s="3"/>
+    </row>
+    <row r="140" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>6</v>
       </c>
@@ -7891,8 +8944,68 @@
       <c r="AB140" s="25"/>
       <c r="AC140" s="25"/>
       <c r="AF140" s="3"/>
-    </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH140" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI140" s="25"/>
+      <c r="AJ140" s="25"/>
+      <c r="AK140" s="25"/>
+      <c r="AN140" s="3"/>
+      <c r="AO140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP140" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ140" s="25"/>
+      <c r="AR140" s="25"/>
+      <c r="AS140" s="25"/>
+      <c r="AV140" s="3"/>
+      <c r="AW140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX140" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY140" s="25"/>
+      <c r="AZ140" s="25"/>
+      <c r="BA140" s="25"/>
+      <c r="BD140" s="3"/>
+      <c r="BE140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF140" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG140" s="25"/>
+      <c r="BH140" s="25"/>
+      <c r="BI140" s="25"/>
+      <c r="BL140" s="3"/>
+      <c r="BM140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN140" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO140" s="25"/>
+      <c r="BP140" s="25"/>
+      <c r="BQ140" s="25"/>
+      <c r="BT140" s="3"/>
+      <c r="BU140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV140" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW140" s="25"/>
+      <c r="BX140" s="25"/>
+      <c r="BY140" s="25"/>
+      <c r="CB140" s="3"/>
+    </row>
+    <row r="141" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -7913,8 +9026,38 @@
       <c r="AB141" s="25"/>
       <c r="AC141" s="25"/>
       <c r="AF141" s="3"/>
-    </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH141" s="25"/>
+      <c r="AI141" s="25"/>
+      <c r="AJ141" s="25"/>
+      <c r="AK141" s="25"/>
+      <c r="AN141" s="3"/>
+      <c r="AP141" s="25"/>
+      <c r="AQ141" s="25"/>
+      <c r="AR141" s="25"/>
+      <c r="AS141" s="25"/>
+      <c r="AV141" s="3"/>
+      <c r="AX141" s="25"/>
+      <c r="AY141" s="25"/>
+      <c r="AZ141" s="25"/>
+      <c r="BA141" s="25"/>
+      <c r="BD141" s="3"/>
+      <c r="BF141" s="25"/>
+      <c r="BG141" s="25"/>
+      <c r="BH141" s="25"/>
+      <c r="BI141" s="25"/>
+      <c r="BL141" s="3"/>
+      <c r="BN141" s="25"/>
+      <c r="BO141" s="25"/>
+      <c r="BP141" s="25"/>
+      <c r="BQ141" s="25"/>
+      <c r="BT141" s="3"/>
+      <c r="BV141" s="25"/>
+      <c r="BW141" s="25"/>
+      <c r="BX141" s="25"/>
+      <c r="BY141" s="25"/>
+      <c r="CB141" s="3"/>
+    </row>
+    <row r="142" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
@@ -7935,14 +9078,50 @@
       <c r="AB142" s="25"/>
       <c r="AC142" s="25"/>
       <c r="AF142" s="3"/>
-    </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH142" s="25"/>
+      <c r="AI142" s="25"/>
+      <c r="AJ142" s="25"/>
+      <c r="AK142" s="25"/>
+      <c r="AN142" s="3"/>
+      <c r="AP142" s="25"/>
+      <c r="AQ142" s="25"/>
+      <c r="AR142" s="25"/>
+      <c r="AS142" s="25"/>
+      <c r="AV142" s="3"/>
+      <c r="AX142" s="25"/>
+      <c r="AY142" s="25"/>
+      <c r="AZ142" s="25"/>
+      <c r="BA142" s="25"/>
+      <c r="BD142" s="3"/>
+      <c r="BF142" s="25"/>
+      <c r="BG142" s="25"/>
+      <c r="BH142" s="25"/>
+      <c r="BI142" s="25"/>
+      <c r="BL142" s="3"/>
+      <c r="BN142" s="25"/>
+      <c r="BO142" s="25"/>
+      <c r="BP142" s="25"/>
+      <c r="BQ142" s="25"/>
+      <c r="BT142" s="3"/>
+      <c r="BV142" s="25"/>
+      <c r="BW142" s="25"/>
+      <c r="BX142" s="25"/>
+      <c r="BY142" s="25"/>
+      <c r="CB142" s="3"/>
+    </row>
+    <row r="143" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H143" s="3"/>
       <c r="P143" s="3"/>
       <c r="X143" s="3"/>
       <c r="AF143" s="3"/>
-    </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN143" s="3"/>
+      <c r="AV143" s="3"/>
+      <c r="BD143" s="3"/>
+      <c r="BL143" s="3"/>
+      <c r="BT143" s="3"/>
+      <c r="CB143" s="3"/>
+    </row>
+    <row r="144" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>9</v>
       </c>
@@ -7983,8 +9162,68 @@
       <c r="AB144" s="13"/>
       <c r="AC144" s="13"/>
       <c r="AF144" s="3"/>
-    </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI144" s="13"/>
+      <c r="AJ144" s="13"/>
+      <c r="AK144" s="13"/>
+      <c r="AN144" s="3"/>
+      <c r="AO144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ144" s="13"/>
+      <c r="AR144" s="13"/>
+      <c r="AS144" s="13"/>
+      <c r="AV144" s="3"/>
+      <c r="AW144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY144" s="13"/>
+      <c r="AZ144" s="13"/>
+      <c r="BA144" s="13"/>
+      <c r="BD144" s="3"/>
+      <c r="BE144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG144" s="13"/>
+      <c r="BH144" s="13"/>
+      <c r="BI144" s="13"/>
+      <c r="BL144" s="3"/>
+      <c r="BM144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO144" s="13"/>
+      <c r="BP144" s="13"/>
+      <c r="BQ144" s="13"/>
+      <c r="BT144" s="3"/>
+      <c r="BU144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW144" s="13"/>
+      <c r="BX144" s="13"/>
+      <c r="BY144" s="13"/>
+      <c r="CB144" s="3"/>
+    </row>
+    <row r="145" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -8005,8 +9244,38 @@
       <c r="AB145" s="13"/>
       <c r="AC145" s="13"/>
       <c r="AF145" s="3"/>
-    </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH145" s="13"/>
+      <c r="AI145" s="13"/>
+      <c r="AJ145" s="13"/>
+      <c r="AK145" s="13"/>
+      <c r="AN145" s="3"/>
+      <c r="AP145" s="13"/>
+      <c r="AQ145" s="13"/>
+      <c r="AR145" s="13"/>
+      <c r="AS145" s="13"/>
+      <c r="AV145" s="3"/>
+      <c r="AX145" s="13"/>
+      <c r="AY145" s="13"/>
+      <c r="AZ145" s="13"/>
+      <c r="BA145" s="13"/>
+      <c r="BD145" s="3"/>
+      <c r="BF145" s="13"/>
+      <c r="BG145" s="13"/>
+      <c r="BH145" s="13"/>
+      <c r="BI145" s="13"/>
+      <c r="BL145" s="3"/>
+      <c r="BN145" s="13"/>
+      <c r="BO145" s="13"/>
+      <c r="BP145" s="13"/>
+      <c r="BQ145" s="13"/>
+      <c r="BT145" s="3"/>
+      <c r="BV145" s="13"/>
+      <c r="BW145" s="13"/>
+      <c r="BX145" s="13"/>
+      <c r="BY145" s="13"/>
+      <c r="CB145" s="3"/>
+    </row>
+    <row r="146" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -8027,14 +9296,50 @@
       <c r="AB146" s="13"/>
       <c r="AC146" s="13"/>
       <c r="AF146" s="3"/>
-    </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH146" s="13"/>
+      <c r="AI146" s="13"/>
+      <c r="AJ146" s="13"/>
+      <c r="AK146" s="13"/>
+      <c r="AN146" s="3"/>
+      <c r="AP146" s="13"/>
+      <c r="AQ146" s="13"/>
+      <c r="AR146" s="13"/>
+      <c r="AS146" s="13"/>
+      <c r="AV146" s="3"/>
+      <c r="AX146" s="13"/>
+      <c r="AY146" s="13"/>
+      <c r="AZ146" s="13"/>
+      <c r="BA146" s="13"/>
+      <c r="BD146" s="3"/>
+      <c r="BF146" s="13"/>
+      <c r="BG146" s="13"/>
+      <c r="BH146" s="13"/>
+      <c r="BI146" s="13"/>
+      <c r="BL146" s="3"/>
+      <c r="BN146" s="13"/>
+      <c r="BO146" s="13"/>
+      <c r="BP146" s="13"/>
+      <c r="BQ146" s="13"/>
+      <c r="BT146" s="3"/>
+      <c r="BV146" s="13"/>
+      <c r="BW146" s="13"/>
+      <c r="BX146" s="13"/>
+      <c r="BY146" s="13"/>
+      <c r="CB146" s="3"/>
+    </row>
+    <row r="147" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H147" s="3"/>
       <c r="P147" s="3"/>
       <c r="X147" s="3"/>
       <c r="AF147" s="3"/>
-    </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN147" s="3"/>
+      <c r="AV147" s="3"/>
+      <c r="BD147" s="3"/>
+      <c r="BL147" s="3"/>
+      <c r="BT147" s="3"/>
+      <c r="CB147" s="3"/>
+    </row>
+    <row r="148" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -8075,8 +9380,68 @@
       <c r="AB148" s="25"/>
       <c r="AC148" s="25"/>
       <c r="AF148" s="3"/>
-    </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI148" s="25"/>
+      <c r="AJ148" s="25"/>
+      <c r="AK148" s="25"/>
+      <c r="AN148" s="3"/>
+      <c r="AO148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ148" s="25"/>
+      <c r="AR148" s="25"/>
+      <c r="AS148" s="25"/>
+      <c r="AV148" s="3"/>
+      <c r="AW148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY148" s="25"/>
+      <c r="AZ148" s="25"/>
+      <c r="BA148" s="25"/>
+      <c r="BD148" s="3"/>
+      <c r="BE148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG148" s="25"/>
+      <c r="BH148" s="25"/>
+      <c r="BI148" s="25"/>
+      <c r="BL148" s="3"/>
+      <c r="BM148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO148" s="25"/>
+      <c r="BP148" s="25"/>
+      <c r="BQ148" s="25"/>
+      <c r="BT148" s="3"/>
+      <c r="BU148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV148" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW148" s="25"/>
+      <c r="BX148" s="25"/>
+      <c r="BY148" s="25"/>
+      <c r="CB148" s="3"/>
+    </row>
+    <row r="149" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
@@ -8097,8 +9462,38 @@
       <c r="AB149" s="25"/>
       <c r="AC149" s="25"/>
       <c r="AF149" s="3"/>
-    </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH149" s="25"/>
+      <c r="AI149" s="25"/>
+      <c r="AJ149" s="25"/>
+      <c r="AK149" s="25"/>
+      <c r="AN149" s="3"/>
+      <c r="AP149" s="25"/>
+      <c r="AQ149" s="25"/>
+      <c r="AR149" s="25"/>
+      <c r="AS149" s="25"/>
+      <c r="AV149" s="3"/>
+      <c r="AX149" s="25"/>
+      <c r="AY149" s="25"/>
+      <c r="AZ149" s="25"/>
+      <c r="BA149" s="25"/>
+      <c r="BD149" s="3"/>
+      <c r="BF149" s="25"/>
+      <c r="BG149" s="25"/>
+      <c r="BH149" s="25"/>
+      <c r="BI149" s="25"/>
+      <c r="BL149" s="3"/>
+      <c r="BN149" s="25"/>
+      <c r="BO149" s="25"/>
+      <c r="BP149" s="25"/>
+      <c r="BQ149" s="25"/>
+      <c r="BT149" s="3"/>
+      <c r="BV149" s="25"/>
+      <c r="BW149" s="25"/>
+      <c r="BX149" s="25"/>
+      <c r="BY149" s="25"/>
+      <c r="CB149" s="3"/>
+    </row>
+    <row r="150" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
@@ -8119,14 +9514,50 @@
       <c r="AB150" s="25"/>
       <c r="AC150" s="25"/>
       <c r="AF150" s="3"/>
-    </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH150" s="25"/>
+      <c r="AI150" s="25"/>
+      <c r="AJ150" s="25"/>
+      <c r="AK150" s="25"/>
+      <c r="AN150" s="3"/>
+      <c r="AP150" s="25"/>
+      <c r="AQ150" s="25"/>
+      <c r="AR150" s="25"/>
+      <c r="AS150" s="25"/>
+      <c r="AV150" s="3"/>
+      <c r="AX150" s="25"/>
+      <c r="AY150" s="25"/>
+      <c r="AZ150" s="25"/>
+      <c r="BA150" s="25"/>
+      <c r="BD150" s="3"/>
+      <c r="BF150" s="25"/>
+      <c r="BG150" s="25"/>
+      <c r="BH150" s="25"/>
+      <c r="BI150" s="25"/>
+      <c r="BL150" s="3"/>
+      <c r="BN150" s="25"/>
+      <c r="BO150" s="25"/>
+      <c r="BP150" s="25"/>
+      <c r="BQ150" s="25"/>
+      <c r="BT150" s="3"/>
+      <c r="BV150" s="25"/>
+      <c r="BW150" s="25"/>
+      <c r="BX150" s="25"/>
+      <c r="BY150" s="25"/>
+      <c r="CB150" s="3"/>
+    </row>
+    <row r="151" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H151" s="3"/>
       <c r="P151" s="3"/>
       <c r="X151" s="3"/>
       <c r="AF151" s="3"/>
-    </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN151" s="3"/>
+      <c r="AV151" s="3"/>
+      <c r="BD151" s="3"/>
+      <c r="BL151" s="3"/>
+      <c r="BT151" s="3"/>
+      <c r="CB151" s="3"/>
+    </row>
+    <row r="152" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>11</v>
       </c>
@@ -8167,8 +9598,68 @@
       <c r="AB152" s="25"/>
       <c r="AC152" s="25"/>
       <c r="AF152" s="3"/>
-    </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI152" s="25"/>
+      <c r="AJ152" s="25"/>
+      <c r="AK152" s="25"/>
+      <c r="AN152" s="3"/>
+      <c r="AO152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ152" s="25"/>
+      <c r="AR152" s="25"/>
+      <c r="AS152" s="25"/>
+      <c r="AV152" s="3"/>
+      <c r="AW152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY152" s="25"/>
+      <c r="AZ152" s="25"/>
+      <c r="BA152" s="25"/>
+      <c r="BD152" s="3"/>
+      <c r="BE152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG152" s="25"/>
+      <c r="BH152" s="25"/>
+      <c r="BI152" s="25"/>
+      <c r="BL152" s="3"/>
+      <c r="BM152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO152" s="25"/>
+      <c r="BP152" s="25"/>
+      <c r="BQ152" s="25"/>
+      <c r="BT152" s="3"/>
+      <c r="BU152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV152" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW152" s="25"/>
+      <c r="BX152" s="25"/>
+      <c r="BY152" s="25"/>
+      <c r="CB152" s="3"/>
+    </row>
+    <row r="153" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
@@ -8189,8 +9680,38 @@
       <c r="AB153" s="25"/>
       <c r="AC153" s="25"/>
       <c r="AF153" s="3"/>
-    </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH153" s="25"/>
+      <c r="AI153" s="25"/>
+      <c r="AJ153" s="25"/>
+      <c r="AK153" s="25"/>
+      <c r="AN153" s="3"/>
+      <c r="AP153" s="25"/>
+      <c r="AQ153" s="25"/>
+      <c r="AR153" s="25"/>
+      <c r="AS153" s="25"/>
+      <c r="AV153" s="3"/>
+      <c r="AX153" s="25"/>
+      <c r="AY153" s="25"/>
+      <c r="AZ153" s="25"/>
+      <c r="BA153" s="25"/>
+      <c r="BD153" s="3"/>
+      <c r="BF153" s="25"/>
+      <c r="BG153" s="25"/>
+      <c r="BH153" s="25"/>
+      <c r="BI153" s="25"/>
+      <c r="BL153" s="3"/>
+      <c r="BN153" s="25"/>
+      <c r="BO153" s="25"/>
+      <c r="BP153" s="25"/>
+      <c r="BQ153" s="25"/>
+      <c r="BT153" s="3"/>
+      <c r="BV153" s="25"/>
+      <c r="BW153" s="25"/>
+      <c r="BX153" s="25"/>
+      <c r="BY153" s="25"/>
+      <c r="CB153" s="3"/>
+    </row>
+    <row r="154" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
@@ -8211,26 +9732,74 @@
       <c r="AB154" s="25"/>
       <c r="AC154" s="25"/>
       <c r="AF154" s="3"/>
-    </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH154" s="25"/>
+      <c r="AI154" s="25"/>
+      <c r="AJ154" s="25"/>
+      <c r="AK154" s="25"/>
+      <c r="AN154" s="3"/>
+      <c r="AP154" s="25"/>
+      <c r="AQ154" s="25"/>
+      <c r="AR154" s="25"/>
+      <c r="AS154" s="25"/>
+      <c r="AV154" s="3"/>
+      <c r="AX154" s="25"/>
+      <c r="AY154" s="25"/>
+      <c r="AZ154" s="25"/>
+      <c r="BA154" s="25"/>
+      <c r="BD154" s="3"/>
+      <c r="BF154" s="25"/>
+      <c r="BG154" s="25"/>
+      <c r="BH154" s="25"/>
+      <c r="BI154" s="25"/>
+      <c r="BL154" s="3"/>
+      <c r="BN154" s="25"/>
+      <c r="BO154" s="25"/>
+      <c r="BP154" s="25"/>
+      <c r="BQ154" s="25"/>
+      <c r="BT154" s="3"/>
+      <c r="BV154" s="25"/>
+      <c r="BW154" s="25"/>
+      <c r="BX154" s="25"/>
+      <c r="BY154" s="25"/>
+      <c r="CB154" s="3"/>
+    </row>
+    <row r="155" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H155" s="3"/>
       <c r="P155" s="3"/>
       <c r="X155" s="3"/>
       <c r="AF155" s="3"/>
-    </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN155" s="3"/>
+      <c r="AV155" s="3"/>
+      <c r="BD155" s="3"/>
+      <c r="BL155" s="3"/>
+      <c r="BT155" s="3"/>
+      <c r="CB155" s="3"/>
+    </row>
+    <row r="156" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H156" s="3"/>
       <c r="P156" s="3"/>
       <c r="X156" s="3"/>
       <c r="AF156" s="3"/>
-    </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN156" s="3"/>
+      <c r="AV156" s="3"/>
+      <c r="BD156" s="3"/>
+      <c r="BL156" s="3"/>
+      <c r="BT156" s="3"/>
+      <c r="CB156" s="3"/>
+    </row>
+    <row r="157" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H157" s="3"/>
       <c r="P157" s="3"/>
       <c r="X157" s="3"/>
       <c r="AF157" s="3"/>
-    </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN157" s="3"/>
+      <c r="AV157" s="3"/>
+      <c r="BD157" s="3"/>
+      <c r="BL157" s="3"/>
+      <c r="BT157" s="3"/>
+      <c r="CB157" s="3"/>
+    </row>
+    <row r="158" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -8307,8 +9876,122 @@
         <v>17</v>
       </c>
       <c r="AF158" s="3"/>
-    </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN158" s="3"/>
+      <c r="AO158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV158" s="3"/>
+      <c r="AW158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD158" s="3"/>
+      <c r="BE158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL158" s="3"/>
+      <c r="BM158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT158" s="3"/>
+      <c r="BU158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB158" s="3"/>
+    </row>
+    <row r="159" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
         <v>1</v>
       </c>
@@ -8357,8 +10040,80 @@
       <c r="AD159" s="13"/>
       <c r="AE159" s="13"/>
       <c r="AF159" s="14"/>
-    </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI159" s="13"/>
+      <c r="AJ159" s="13"/>
+      <c r="AK159" s="13"/>
+      <c r="AL159" s="13"/>
+      <c r="AM159" s="13"/>
+      <c r="AN159" s="14"/>
+      <c r="AO159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ159" s="13"/>
+      <c r="AR159" s="13"/>
+      <c r="AS159" s="13"/>
+      <c r="AT159" s="13"/>
+      <c r="AU159" s="13"/>
+      <c r="AV159" s="14"/>
+      <c r="AW159" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY159" s="13"/>
+      <c r="AZ159" s="13"/>
+      <c r="BA159" s="13"/>
+      <c r="BB159" s="13"/>
+      <c r="BC159" s="13"/>
+      <c r="BD159" s="14"/>
+      <c r="BE159" s="13">
+        <v>1</v>
+      </c>
+      <c r="BF159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG159" s="13"/>
+      <c r="BH159" s="13"/>
+      <c r="BI159" s="13"/>
+      <c r="BJ159" s="13"/>
+      <c r="BK159" s="13"/>
+      <c r="BL159" s="14"/>
+      <c r="BM159" s="13">
+        <v>1</v>
+      </c>
+      <c r="BN159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO159" s="13"/>
+      <c r="BP159" s="13"/>
+      <c r="BQ159" s="13"/>
+      <c r="BR159" s="13"/>
+      <c r="BS159" s="13"/>
+      <c r="BT159" s="14"/>
+      <c r="BU159" s="13">
+        <v>1</v>
+      </c>
+      <c r="BV159" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW159" s="13"/>
+      <c r="BX159" s="13"/>
+      <c r="BY159" s="13"/>
+      <c r="BZ159" s="13"/>
+      <c r="CA159" s="13"/>
+      <c r="CB159" s="14"/>
+    </row>
+    <row r="160" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -8391,8 +10146,56 @@
       <c r="AD160" s="13"/>
       <c r="AE160" s="13"/>
       <c r="AF160" s="14"/>
-    </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG160" s="13"/>
+      <c r="AH160" s="13"/>
+      <c r="AI160" s="13"/>
+      <c r="AJ160" s="13"/>
+      <c r="AK160" s="13"/>
+      <c r="AL160" s="13"/>
+      <c r="AM160" s="13"/>
+      <c r="AN160" s="14"/>
+      <c r="AO160" s="13"/>
+      <c r="AP160" s="13"/>
+      <c r="AQ160" s="13"/>
+      <c r="AR160" s="13"/>
+      <c r="AS160" s="13"/>
+      <c r="AT160" s="13"/>
+      <c r="AU160" s="13"/>
+      <c r="AV160" s="14"/>
+      <c r="AW160" s="13"/>
+      <c r="AX160" s="13"/>
+      <c r="AY160" s="13"/>
+      <c r="AZ160" s="13"/>
+      <c r="BA160" s="13"/>
+      <c r="BB160" s="13"/>
+      <c r="BC160" s="13"/>
+      <c r="BD160" s="14"/>
+      <c r="BE160" s="13"/>
+      <c r="BF160" s="13"/>
+      <c r="BG160" s="13"/>
+      <c r="BH160" s="13"/>
+      <c r="BI160" s="13"/>
+      <c r="BJ160" s="13"/>
+      <c r="BK160" s="13"/>
+      <c r="BL160" s="14"/>
+      <c r="BM160" s="13"/>
+      <c r="BN160" s="13"/>
+      <c r="BO160" s="13"/>
+      <c r="BP160" s="13"/>
+      <c r="BQ160" s="13"/>
+      <c r="BR160" s="13"/>
+      <c r="BS160" s="13"/>
+      <c r="BT160" s="14"/>
+      <c r="BU160" s="13"/>
+      <c r="BV160" s="13"/>
+      <c r="BW160" s="13"/>
+      <c r="BX160" s="13"/>
+      <c r="BY160" s="13"/>
+      <c r="BZ160" s="13"/>
+      <c r="CA160" s="13"/>
+      <c r="CB160" s="14"/>
+    </row>
+    <row r="161" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -8425,14 +10228,68 @@
       <c r="AD161" s="13"/>
       <c r="AE161" s="13"/>
       <c r="AF161" s="14"/>
-    </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG161" s="13"/>
+      <c r="AH161" s="13"/>
+      <c r="AI161" s="13"/>
+      <c r="AJ161" s="13"/>
+      <c r="AK161" s="13"/>
+      <c r="AL161" s="13"/>
+      <c r="AM161" s="13"/>
+      <c r="AN161" s="14"/>
+      <c r="AO161" s="13"/>
+      <c r="AP161" s="13"/>
+      <c r="AQ161" s="13"/>
+      <c r="AR161" s="13"/>
+      <c r="AS161" s="13"/>
+      <c r="AT161" s="13"/>
+      <c r="AU161" s="13"/>
+      <c r="AV161" s="14"/>
+      <c r="AW161" s="13"/>
+      <c r="AX161" s="13"/>
+      <c r="AY161" s="13"/>
+      <c r="AZ161" s="13"/>
+      <c r="BA161" s="13"/>
+      <c r="BB161" s="13"/>
+      <c r="BC161" s="13"/>
+      <c r="BD161" s="14"/>
+      <c r="BE161" s="13"/>
+      <c r="BF161" s="13"/>
+      <c r="BG161" s="13"/>
+      <c r="BH161" s="13"/>
+      <c r="BI161" s="13"/>
+      <c r="BJ161" s="13"/>
+      <c r="BK161" s="13"/>
+      <c r="BL161" s="14"/>
+      <c r="BM161" s="13"/>
+      <c r="BN161" s="13"/>
+      <c r="BO161" s="13"/>
+      <c r="BP161" s="13"/>
+      <c r="BQ161" s="13"/>
+      <c r="BR161" s="13"/>
+      <c r="BS161" s="13"/>
+      <c r="BT161" s="14"/>
+      <c r="BU161" s="13"/>
+      <c r="BV161" s="13"/>
+      <c r="BW161" s="13"/>
+      <c r="BX161" s="13"/>
+      <c r="BY161" s="13"/>
+      <c r="BZ161" s="13"/>
+      <c r="CA161" s="13"/>
+      <c r="CB161" s="14"/>
+    </row>
+    <row r="162" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H162" s="3"/>
       <c r="P162" s="3"/>
       <c r="X162" s="3"/>
       <c r="AF162" s="3"/>
-    </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN162" s="3"/>
+      <c r="AV162" s="3"/>
+      <c r="BD162" s="3"/>
+      <c r="BL162" s="3"/>
+      <c r="BT162" s="3"/>
+      <c r="CB162" s="3"/>
+    </row>
+    <row r="163" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>12</v>
       </c>
@@ -8509,8 +10366,122 @@
         <v>17</v>
       </c>
       <c r="AF163" s="3"/>
-    </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN163" s="3"/>
+      <c r="AO163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV163" s="3"/>
+      <c r="AW163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD163" s="3"/>
+      <c r="BE163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL163" s="3"/>
+      <c r="BM163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT163" s="3"/>
+      <c r="BU163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB163" s="3"/>
+    </row>
+    <row r="164" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>2</v>
       </c>
@@ -8559,8 +10530,80 @@
       <c r="AD164" s="13"/>
       <c r="AE164" s="13"/>
       <c r="AF164" s="14"/>
-    </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG164" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH164" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI164" s="13"/>
+      <c r="AJ164" s="13"/>
+      <c r="AK164" s="13"/>
+      <c r="AL164" s="13"/>
+      <c r="AM164" s="13"/>
+      <c r="AN164" s="14"/>
+      <c r="AO164" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP164" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ164" s="13"/>
+      <c r="AR164" s="13"/>
+      <c r="AS164" s="13"/>
+      <c r="AT164" s="13"/>
+      <c r="AU164" s="13"/>
+      <c r="AV164" s="14"/>
+      <c r="AW164" s="13">
+        <v>2</v>
+      </c>
+      <c r="AX164" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY164" s="13"/>
+      <c r="AZ164" s="13"/>
+      <c r="BA164" s="13"/>
+      <c r="BB164" s="13"/>
+      <c r="BC164" s="13"/>
+      <c r="BD164" s="14"/>
+      <c r="BE164" s="13">
+        <v>2</v>
+      </c>
+      <c r="BF164" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG164" s="13"/>
+      <c r="BH164" s="13"/>
+      <c r="BI164" s="13"/>
+      <c r="BJ164" s="13"/>
+      <c r="BK164" s="13"/>
+      <c r="BL164" s="14"/>
+      <c r="BM164" s="13">
+        <v>2</v>
+      </c>
+      <c r="BN164" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="BO164" s="13"/>
+      <c r="BP164" s="13"/>
+      <c r="BQ164" s="13"/>
+      <c r="BR164" s="13"/>
+      <c r="BS164" s="13"/>
+      <c r="BT164" s="14"/>
+      <c r="BU164" s="13">
+        <v>2</v>
+      </c>
+      <c r="BV164" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW164" s="13"/>
+      <c r="BX164" s="13"/>
+      <c r="BY164" s="13"/>
+      <c r="BZ164" s="13"/>
+      <c r="CA164" s="13"/>
+      <c r="CB164" s="14"/>
+    </row>
+    <row r="165" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -8593,8 +10636,56 @@
       <c r="AD165" s="13"/>
       <c r="AE165" s="13"/>
       <c r="AF165" s="14"/>
-    </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG165" s="13"/>
+      <c r="AH165" s="13"/>
+      <c r="AI165" s="13"/>
+      <c r="AJ165" s="13"/>
+      <c r="AK165" s="13"/>
+      <c r="AL165" s="13"/>
+      <c r="AM165" s="13"/>
+      <c r="AN165" s="14"/>
+      <c r="AO165" s="13"/>
+      <c r="AP165" s="13"/>
+      <c r="AQ165" s="13"/>
+      <c r="AR165" s="13"/>
+      <c r="AS165" s="13"/>
+      <c r="AT165" s="13"/>
+      <c r="AU165" s="13"/>
+      <c r="AV165" s="14"/>
+      <c r="AW165" s="13"/>
+      <c r="AX165" s="13"/>
+      <c r="AY165" s="13"/>
+      <c r="AZ165" s="13"/>
+      <c r="BA165" s="13"/>
+      <c r="BB165" s="13"/>
+      <c r="BC165" s="13"/>
+      <c r="BD165" s="14"/>
+      <c r="BE165" s="13"/>
+      <c r="BF165" s="13"/>
+      <c r="BG165" s="13"/>
+      <c r="BH165" s="13"/>
+      <c r="BI165" s="13"/>
+      <c r="BJ165" s="13"/>
+      <c r="BK165" s="13"/>
+      <c r="BL165" s="14"/>
+      <c r="BM165" s="13"/>
+      <c r="BN165" s="13"/>
+      <c r="BO165" s="13"/>
+      <c r="BP165" s="13"/>
+      <c r="BQ165" s="13"/>
+      <c r="BR165" s="13"/>
+      <c r="BS165" s="13"/>
+      <c r="BT165" s="14"/>
+      <c r="BU165" s="13"/>
+      <c r="BV165" s="13"/>
+      <c r="BW165" s="13"/>
+      <c r="BX165" s="13"/>
+      <c r="BY165" s="13"/>
+      <c r="BZ165" s="13"/>
+      <c r="CA165" s="13"/>
+      <c r="CB165" s="14"/>
+    </row>
+    <row r="166" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -8627,14 +10718,68 @@
       <c r="AD166" s="13"/>
       <c r="AE166" s="13"/>
       <c r="AF166" s="14"/>
-    </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG166" s="13"/>
+      <c r="AH166" s="13"/>
+      <c r="AI166" s="13"/>
+      <c r="AJ166" s="13"/>
+      <c r="AK166" s="13"/>
+      <c r="AL166" s="13"/>
+      <c r="AM166" s="13"/>
+      <c r="AN166" s="14"/>
+      <c r="AO166" s="13"/>
+      <c r="AP166" s="13"/>
+      <c r="AQ166" s="13"/>
+      <c r="AR166" s="13"/>
+      <c r="AS166" s="13"/>
+      <c r="AT166" s="13"/>
+      <c r="AU166" s="13"/>
+      <c r="AV166" s="14"/>
+      <c r="AW166" s="13"/>
+      <c r="AX166" s="13"/>
+      <c r="AY166" s="13"/>
+      <c r="AZ166" s="13"/>
+      <c r="BA166" s="13"/>
+      <c r="BB166" s="13"/>
+      <c r="BC166" s="13"/>
+      <c r="BD166" s="14"/>
+      <c r="BE166" s="13"/>
+      <c r="BF166" s="13"/>
+      <c r="BG166" s="13"/>
+      <c r="BH166" s="13"/>
+      <c r="BI166" s="13"/>
+      <c r="BJ166" s="13"/>
+      <c r="BK166" s="13"/>
+      <c r="BL166" s="14"/>
+      <c r="BM166" s="13"/>
+      <c r="BN166" s="13"/>
+      <c r="BO166" s="13"/>
+      <c r="BP166" s="13"/>
+      <c r="BQ166" s="13"/>
+      <c r="BR166" s="13"/>
+      <c r="BS166" s="13"/>
+      <c r="BT166" s="14"/>
+      <c r="BU166" s="13"/>
+      <c r="BV166" s="13"/>
+      <c r="BW166" s="13"/>
+      <c r="BX166" s="13"/>
+      <c r="BY166" s="13"/>
+      <c r="BZ166" s="13"/>
+      <c r="CA166" s="13"/>
+      <c r="CB166" s="14"/>
+    </row>
+    <row r="167" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H167" s="3"/>
       <c r="P167" s="3"/>
       <c r="X167" s="3"/>
       <c r="AF167" s="3"/>
-    </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN167" s="3"/>
+      <c r="AV167" s="3"/>
+      <c r="BD167" s="3"/>
+      <c r="BL167" s="3"/>
+      <c r="BT167" s="3"/>
+      <c r="CB167" s="3"/>
+    </row>
+    <row r="168" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>12</v>
       </c>
@@ -8711,8 +10856,122 @@
         <v>17</v>
       </c>
       <c r="AF168" s="3"/>
-    </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV168" s="3"/>
+      <c r="AW168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD168" s="3"/>
+      <c r="BE168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL168" s="3"/>
+      <c r="BM168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT168" s="3"/>
+      <c r="BU168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB168" s="3"/>
+    </row>
+    <row r="169" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>3</v>
       </c>
@@ -8761,8 +11020,80 @@
       <c r="AD169" s="13"/>
       <c r="AE169" s="13"/>
       <c r="AF169" s="14"/>
-    </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG169" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI169" s="13"/>
+      <c r="AJ169" s="13"/>
+      <c r="AK169" s="13"/>
+      <c r="AL169" s="13"/>
+      <c r="AM169" s="13"/>
+      <c r="AN169" s="14"/>
+      <c r="AO169" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ169" s="13"/>
+      <c r="AR169" s="13"/>
+      <c r="AS169" s="13"/>
+      <c r="AT169" s="13"/>
+      <c r="AU169" s="13"/>
+      <c r="AV169" s="14"/>
+      <c r="AW169" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY169" s="13"/>
+      <c r="AZ169" s="13"/>
+      <c r="BA169" s="13"/>
+      <c r="BB169" s="13"/>
+      <c r="BC169" s="13"/>
+      <c r="BD169" s="14"/>
+      <c r="BE169" s="13">
+        <v>3</v>
+      </c>
+      <c r="BF169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG169" s="13"/>
+      <c r="BH169" s="13"/>
+      <c r="BI169" s="13"/>
+      <c r="BJ169" s="13"/>
+      <c r="BK169" s="13"/>
+      <c r="BL169" s="14"/>
+      <c r="BM169" s="13">
+        <v>3</v>
+      </c>
+      <c r="BN169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO169" s="13"/>
+      <c r="BP169" s="13"/>
+      <c r="BQ169" s="13"/>
+      <c r="BR169" s="13"/>
+      <c r="BS169" s="13"/>
+      <c r="BT169" s="14"/>
+      <c r="BU169" s="13">
+        <v>3</v>
+      </c>
+      <c r="BV169" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW169" s="13"/>
+      <c r="BX169" s="13"/>
+      <c r="BY169" s="13"/>
+      <c r="BZ169" s="13"/>
+      <c r="CA169" s="13"/>
+      <c r="CB169" s="14"/>
+    </row>
+    <row r="170" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -8795,8 +11126,56 @@
       <c r="AD170" s="13"/>
       <c r="AE170" s="13"/>
       <c r="AF170" s="14"/>
-    </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG170" s="13"/>
+      <c r="AH170" s="13"/>
+      <c r="AI170" s="13"/>
+      <c r="AJ170" s="13"/>
+      <c r="AK170" s="13"/>
+      <c r="AL170" s="13"/>
+      <c r="AM170" s="13"/>
+      <c r="AN170" s="14"/>
+      <c r="AO170" s="13"/>
+      <c r="AP170" s="13"/>
+      <c r="AQ170" s="13"/>
+      <c r="AR170" s="13"/>
+      <c r="AS170" s="13"/>
+      <c r="AT170" s="13"/>
+      <c r="AU170" s="13"/>
+      <c r="AV170" s="14"/>
+      <c r="AW170" s="13"/>
+      <c r="AX170" s="13"/>
+      <c r="AY170" s="13"/>
+      <c r="AZ170" s="13"/>
+      <c r="BA170" s="13"/>
+      <c r="BB170" s="13"/>
+      <c r="BC170" s="13"/>
+      <c r="BD170" s="14"/>
+      <c r="BE170" s="13"/>
+      <c r="BF170" s="13"/>
+      <c r="BG170" s="13"/>
+      <c r="BH170" s="13"/>
+      <c r="BI170" s="13"/>
+      <c r="BJ170" s="13"/>
+      <c r="BK170" s="13"/>
+      <c r="BL170" s="14"/>
+      <c r="BM170" s="13"/>
+      <c r="BN170" s="13"/>
+      <c r="BO170" s="13"/>
+      <c r="BP170" s="13"/>
+      <c r="BQ170" s="13"/>
+      <c r="BR170" s="13"/>
+      <c r="BS170" s="13"/>
+      <c r="BT170" s="14"/>
+      <c r="BU170" s="13"/>
+      <c r="BV170" s="13"/>
+      <c r="BW170" s="13"/>
+      <c r="BX170" s="13"/>
+      <c r="BY170" s="13"/>
+      <c r="BZ170" s="13"/>
+      <c r="CA170" s="13"/>
+      <c r="CB170" s="14"/>
+    </row>
+    <row r="171" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -8829,8 +11208,56 @@
       <c r="AD171" s="13"/>
       <c r="AE171" s="13"/>
       <c r="AF171" s="14"/>
-    </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG171" s="13"/>
+      <c r="AH171" s="13"/>
+      <c r="AI171" s="13"/>
+      <c r="AJ171" s="13"/>
+      <c r="AK171" s="13"/>
+      <c r="AL171" s="13"/>
+      <c r="AM171" s="13"/>
+      <c r="AN171" s="14"/>
+      <c r="AO171" s="13"/>
+      <c r="AP171" s="13"/>
+      <c r="AQ171" s="13"/>
+      <c r="AR171" s="13"/>
+      <c r="AS171" s="13"/>
+      <c r="AT171" s="13"/>
+      <c r="AU171" s="13"/>
+      <c r="AV171" s="14"/>
+      <c r="AW171" s="13"/>
+      <c r="AX171" s="13"/>
+      <c r="AY171" s="13"/>
+      <c r="AZ171" s="13"/>
+      <c r="BA171" s="13"/>
+      <c r="BB171" s="13"/>
+      <c r="BC171" s="13"/>
+      <c r="BD171" s="14"/>
+      <c r="BE171" s="13"/>
+      <c r="BF171" s="13"/>
+      <c r="BG171" s="13"/>
+      <c r="BH171" s="13"/>
+      <c r="BI171" s="13"/>
+      <c r="BJ171" s="13"/>
+      <c r="BK171" s="13"/>
+      <c r="BL171" s="14"/>
+      <c r="BM171" s="13"/>
+      <c r="BN171" s="13"/>
+      <c r="BO171" s="13"/>
+      <c r="BP171" s="13"/>
+      <c r="BQ171" s="13"/>
+      <c r="BR171" s="13"/>
+      <c r="BS171" s="13"/>
+      <c r="BT171" s="14"/>
+      <c r="BU171" s="13"/>
+      <c r="BV171" s="13"/>
+      <c r="BW171" s="13"/>
+      <c r="BX171" s="13"/>
+      <c r="BY171" s="13"/>
+      <c r="BZ171" s="13"/>
+      <c r="CA171" s="13"/>
+      <c r="CB171" s="14"/>
+    </row>
+    <row r="172" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="12"/>
@@ -8842,8 +11269,14 @@
       <c r="W172" s="12"/>
       <c r="X172" s="9"/>
       <c r="AF172" s="3"/>
-    </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN172" s="3"/>
+      <c r="AV172" s="3"/>
+      <c r="BD172" s="3"/>
+      <c r="BL172" s="3"/>
+      <c r="BT172" s="3"/>
+      <c r="CB172" s="3"/>
+    </row>
+    <row r="173" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>12</v>
       </c>
@@ -8920,8 +11353,122 @@
         <v>17</v>
       </c>
       <c r="AF173" s="3"/>
-    </row>
-    <row r="174" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV173" s="3"/>
+      <c r="AW173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD173" s="3"/>
+      <c r="BE173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL173" s="3"/>
+      <c r="BM173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT173" s="3"/>
+      <c r="BU173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB173" s="3"/>
+    </row>
+    <row r="174" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>4</v>
       </c>
@@ -8988,8 +11535,116 @@
       </c>
       <c r="AE174" s="13"/>
       <c r="AF174" s="14"/>
-    </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG174" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH174" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI174" s="13"/>
+      <c r="AJ174" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK174" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM174" s="13"/>
+      <c r="AN174" s="14"/>
+      <c r="AO174" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP174" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ174" s="13"/>
+      <c r="AR174" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS174" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU174" s="13"/>
+      <c r="AV174" s="14"/>
+      <c r="AW174" s="13">
+        <v>4</v>
+      </c>
+      <c r="AX174" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY174" s="13"/>
+      <c r="AZ174" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA174" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC174" s="13"/>
+      <c r="BD174" s="14"/>
+      <c r="BE174" s="13">
+        <v>4</v>
+      </c>
+      <c r="BF174" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG174" s="13"/>
+      <c r="BH174" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI174" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK174" s="13"/>
+      <c r="BL174" s="14"/>
+      <c r="BM174" s="13">
+        <v>4</v>
+      </c>
+      <c r="BN174" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO174" s="13"/>
+      <c r="BP174" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ174" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS174" s="13"/>
+      <c r="BT174" s="14"/>
+      <c r="BU174" s="13">
+        <v>4</v>
+      </c>
+      <c r="BV174" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW174" s="13"/>
+      <c r="BX174" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY174" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA174" s="13"/>
+      <c r="CB174" s="14"/>
+    </row>
+    <row r="175" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -9022,8 +11677,56 @@
       <c r="AD175" s="13"/>
       <c r="AE175" s="13"/>
       <c r="AF175" s="14"/>
-    </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG175" s="13"/>
+      <c r="AH175" s="13"/>
+      <c r="AI175" s="13"/>
+      <c r="AJ175" s="13"/>
+      <c r="AK175" s="13"/>
+      <c r="AL175" s="13"/>
+      <c r="AM175" s="13"/>
+      <c r="AN175" s="14"/>
+      <c r="AO175" s="13"/>
+      <c r="AP175" s="13"/>
+      <c r="AQ175" s="13"/>
+      <c r="AR175" s="13"/>
+      <c r="AS175" s="13"/>
+      <c r="AT175" s="13"/>
+      <c r="AU175" s="13"/>
+      <c r="AV175" s="14"/>
+      <c r="AW175" s="13"/>
+      <c r="AX175" s="13"/>
+      <c r="AY175" s="13"/>
+      <c r="AZ175" s="13"/>
+      <c r="BA175" s="13"/>
+      <c r="BB175" s="13"/>
+      <c r="BC175" s="13"/>
+      <c r="BD175" s="14"/>
+      <c r="BE175" s="13"/>
+      <c r="BF175" s="13"/>
+      <c r="BG175" s="13"/>
+      <c r="BH175" s="13"/>
+      <c r="BI175" s="13"/>
+      <c r="BJ175" s="13"/>
+      <c r="BK175" s="13"/>
+      <c r="BL175" s="14"/>
+      <c r="BM175" s="13"/>
+      <c r="BN175" s="13"/>
+      <c r="BO175" s="13"/>
+      <c r="BP175" s="13"/>
+      <c r="BQ175" s="13"/>
+      <c r="BR175" s="13"/>
+      <c r="BS175" s="13"/>
+      <c r="BT175" s="14"/>
+      <c r="BU175" s="13"/>
+      <c r="BV175" s="13"/>
+      <c r="BW175" s="13"/>
+      <c r="BX175" s="13"/>
+      <c r="BY175" s="13"/>
+      <c r="BZ175" s="13"/>
+      <c r="CA175" s="13"/>
+      <c r="CB175" s="14"/>
+    </row>
+    <row r="176" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -9056,14 +11759,68 @@
       <c r="AD176" s="13"/>
       <c r="AE176" s="13"/>
       <c r="AF176" s="14"/>
-    </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG176" s="13"/>
+      <c r="AH176" s="13"/>
+      <c r="AI176" s="13"/>
+      <c r="AJ176" s="13"/>
+      <c r="AK176" s="13"/>
+      <c r="AL176" s="13"/>
+      <c r="AM176" s="13"/>
+      <c r="AN176" s="14"/>
+      <c r="AO176" s="13"/>
+      <c r="AP176" s="13"/>
+      <c r="AQ176" s="13"/>
+      <c r="AR176" s="13"/>
+      <c r="AS176" s="13"/>
+      <c r="AT176" s="13"/>
+      <c r="AU176" s="13"/>
+      <c r="AV176" s="14"/>
+      <c r="AW176" s="13"/>
+      <c r="AX176" s="13"/>
+      <c r="AY176" s="13"/>
+      <c r="AZ176" s="13"/>
+      <c r="BA176" s="13"/>
+      <c r="BB176" s="13"/>
+      <c r="BC176" s="13"/>
+      <c r="BD176" s="14"/>
+      <c r="BE176" s="13"/>
+      <c r="BF176" s="13"/>
+      <c r="BG176" s="13"/>
+      <c r="BH176" s="13"/>
+      <c r="BI176" s="13"/>
+      <c r="BJ176" s="13"/>
+      <c r="BK176" s="13"/>
+      <c r="BL176" s="14"/>
+      <c r="BM176" s="13"/>
+      <c r="BN176" s="13"/>
+      <c r="BO176" s="13"/>
+      <c r="BP176" s="13"/>
+      <c r="BQ176" s="13"/>
+      <c r="BR176" s="13"/>
+      <c r="BS176" s="13"/>
+      <c r="BT176" s="14"/>
+      <c r="BU176" s="13"/>
+      <c r="BV176" s="13"/>
+      <c r="BW176" s="13"/>
+      <c r="BX176" s="13"/>
+      <c r="BY176" s="13"/>
+      <c r="BZ176" s="13"/>
+      <c r="CA176" s="13"/>
+      <c r="CB176" s="14"/>
+    </row>
+    <row r="177" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H177" s="3"/>
       <c r="P177" s="3"/>
       <c r="X177" s="3"/>
       <c r="AF177" s="3"/>
-    </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN177" s="3"/>
+      <c r="AV177" s="3"/>
+      <c r="BD177" s="3"/>
+      <c r="BL177" s="3"/>
+      <c r="BT177" s="3"/>
+      <c r="CB177" s="3"/>
+    </row>
+    <row r="178" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>12</v>
       </c>
@@ -9122,8 +11879,122 @@
         <v>17</v>
       </c>
       <c r="AF178" s="3"/>
-    </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN178" s="3"/>
+      <c r="AO178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV178" s="3"/>
+      <c r="AW178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD178" s="3"/>
+      <c r="BE178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL178" s="3"/>
+      <c r="BM178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT178" s="3"/>
+      <c r="BU178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB178" s="3"/>
+    </row>
+    <row r="179" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>5</v>
       </c>
@@ -9179,8 +12050,92 @@
       </c>
       <c r="AE179" s="13"/>
       <c r="AF179" s="14"/>
-    </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG179" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH179" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI179" s="13"/>
+      <c r="AJ179" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK179" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM179" s="13"/>
+      <c r="AN179" s="14"/>
+      <c r="AO179" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP179" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ179" s="13"/>
+      <c r="AR179" s="24"/>
+      <c r="AS179" s="24"/>
+      <c r="AT179" s="13"/>
+      <c r="AU179" s="13"/>
+      <c r="AV179" s="14"/>
+      <c r="AW179" s="13">
+        <v>5</v>
+      </c>
+      <c r="AX179" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY179" s="13"/>
+      <c r="AZ179" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA179" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC179" s="13"/>
+      <c r="BD179" s="14"/>
+      <c r="BE179" s="13">
+        <v>5</v>
+      </c>
+      <c r="BF179" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG179" s="13"/>
+      <c r="BH179" s="24"/>
+      <c r="BI179" s="24"/>
+      <c r="BJ179" s="13"/>
+      <c r="BK179" s="13"/>
+      <c r="BL179" s="14"/>
+      <c r="BM179" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN179" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO179" s="13"/>
+      <c r="BP179" s="24"/>
+      <c r="BQ179" s="24"/>
+      <c r="BR179" s="13"/>
+      <c r="BS179" s="13"/>
+      <c r="BT179" s="14"/>
+      <c r="BU179" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV179" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW179" s="13"/>
+      <c r="BX179" s="24"/>
+      <c r="BY179" s="24"/>
+      <c r="BZ179" s="13"/>
+      <c r="CA179" s="13"/>
+      <c r="CB179" s="14"/>
+    </row>
+    <row r="180" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -9206,8 +12161,56 @@
       <c r="AD180" s="13"/>
       <c r="AE180" s="13"/>
       <c r="AF180" s="14"/>
-    </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG180" s="13"/>
+      <c r="AH180" s="13"/>
+      <c r="AI180" s="13"/>
+      <c r="AJ180" s="13"/>
+      <c r="AK180" s="13"/>
+      <c r="AL180" s="13"/>
+      <c r="AM180" s="13"/>
+      <c r="AN180" s="14"/>
+      <c r="AO180" s="13"/>
+      <c r="AP180" s="13"/>
+      <c r="AQ180" s="13"/>
+      <c r="AR180" s="13"/>
+      <c r="AS180" s="13"/>
+      <c r="AT180" s="13"/>
+      <c r="AU180" s="13"/>
+      <c r="AV180" s="14"/>
+      <c r="AW180" s="13"/>
+      <c r="AX180" s="13"/>
+      <c r="AY180" s="13"/>
+      <c r="AZ180" s="13"/>
+      <c r="BA180" s="13"/>
+      <c r="BB180" s="13"/>
+      <c r="BC180" s="13"/>
+      <c r="BD180" s="14"/>
+      <c r="BE180" s="13"/>
+      <c r="BF180" s="13"/>
+      <c r="BG180" s="13"/>
+      <c r="BH180" s="13"/>
+      <c r="BI180" s="13"/>
+      <c r="BJ180" s="13"/>
+      <c r="BK180" s="13"/>
+      <c r="BL180" s="14"/>
+      <c r="BM180" s="13"/>
+      <c r="BN180" s="13"/>
+      <c r="BO180" s="13"/>
+      <c r="BP180" s="13"/>
+      <c r="BQ180" s="13"/>
+      <c r="BR180" s="13"/>
+      <c r="BS180" s="13"/>
+      <c r="BT180" s="14"/>
+      <c r="BU180" s="13"/>
+      <c r="BV180" s="13"/>
+      <c r="BW180" s="13"/>
+      <c r="BX180" s="13"/>
+      <c r="BY180" s="13"/>
+      <c r="BZ180" s="13"/>
+      <c r="CA180" s="13"/>
+      <c r="CB180" s="14"/>
+    </row>
+    <row r="181" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -9233,8 +12236,56 @@
       <c r="AD181" s="13"/>
       <c r="AE181" s="13"/>
       <c r="AF181" s="14"/>
-    </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG181" s="13"/>
+      <c r="AH181" s="13"/>
+      <c r="AI181" s="13"/>
+      <c r="AJ181" s="13"/>
+      <c r="AK181" s="13"/>
+      <c r="AL181" s="13"/>
+      <c r="AM181" s="13"/>
+      <c r="AN181" s="14"/>
+      <c r="AO181" s="13"/>
+      <c r="AP181" s="13"/>
+      <c r="AQ181" s="13"/>
+      <c r="AR181" s="13"/>
+      <c r="AS181" s="13"/>
+      <c r="AT181" s="13"/>
+      <c r="AU181" s="13"/>
+      <c r="AV181" s="14"/>
+      <c r="AW181" s="13"/>
+      <c r="AX181" s="13"/>
+      <c r="AY181" s="13"/>
+      <c r="AZ181" s="13"/>
+      <c r="BA181" s="13"/>
+      <c r="BB181" s="13"/>
+      <c r="BC181" s="13"/>
+      <c r="BD181" s="14"/>
+      <c r="BE181" s="13"/>
+      <c r="BF181" s="13"/>
+      <c r="BG181" s="13"/>
+      <c r="BH181" s="13"/>
+      <c r="BI181" s="13"/>
+      <c r="BJ181" s="13"/>
+      <c r="BK181" s="13"/>
+      <c r="BL181" s="14"/>
+      <c r="BM181" s="13"/>
+      <c r="BN181" s="13"/>
+      <c r="BO181" s="13"/>
+      <c r="BP181" s="13"/>
+      <c r="BQ181" s="13"/>
+      <c r="BR181" s="13"/>
+      <c r="BS181" s="13"/>
+      <c r="BT181" s="14"/>
+      <c r="BU181" s="13"/>
+      <c r="BV181" s="13"/>
+      <c r="BW181" s="13"/>
+      <c r="BX181" s="13"/>
+      <c r="BY181" s="13"/>
+      <c r="BZ181" s="13"/>
+      <c r="CA181" s="13"/>
+      <c r="CB181" s="14"/>
+    </row>
+    <row r="182" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="5" t="s">
@@ -9257,8 +12308,14 @@
       </c>
       <c r="X182" s="3"/>
       <c r="AF182" s="3"/>
-    </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN182" s="3"/>
+      <c r="AV182" s="3"/>
+      <c r="BD182" s="3"/>
+      <c r="BL182" s="3"/>
+      <c r="BT182" s="3"/>
+      <c r="CB182" s="3"/>
+    </row>
+    <row r="183" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -9334,8 +12391,122 @@
         <v>17</v>
       </c>
       <c r="AF183" s="3"/>
-    </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN183" s="3"/>
+      <c r="AO183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV183" s="3"/>
+      <c r="AW183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD183" s="3"/>
+      <c r="BE183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL183" s="3"/>
+      <c r="BM183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT183" s="3"/>
+      <c r="BU183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB183" s="3"/>
+    </row>
+    <row r="184" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>6</v>
       </c>
@@ -9398,8 +12569,116 @@
       </c>
       <c r="AE184" s="13"/>
       <c r="AF184" s="14"/>
-    </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG184" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH184" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI184" s="13"/>
+      <c r="AJ184" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK184" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM184" s="13"/>
+      <c r="AN184" s="14"/>
+      <c r="AO184" s="13">
+        <v>6</v>
+      </c>
+      <c r="AP184" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ184" s="13"/>
+      <c r="AR184" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS184" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU184" s="13"/>
+      <c r="AV184" s="14"/>
+      <c r="AW184" s="13">
+        <v>6</v>
+      </c>
+      <c r="AX184" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY184" s="13"/>
+      <c r="AZ184" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA184" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC184" s="13"/>
+      <c r="BD184" s="14"/>
+      <c r="BE184" s="13">
+        <v>6</v>
+      </c>
+      <c r="BF184" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG184" s="13"/>
+      <c r="BH184" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI184" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK184" s="13"/>
+      <c r="BL184" s="14"/>
+      <c r="BM184" s="13">
+        <v>6</v>
+      </c>
+      <c r="BN184" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO184" s="13"/>
+      <c r="BP184" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ184" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS184" s="13"/>
+      <c r="BT184" s="14"/>
+      <c r="BU184" s="13">
+        <v>6</v>
+      </c>
+      <c r="BV184" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BW184" s="13"/>
+      <c r="BX184" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BY184" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA184" s="13"/>
+      <c r="CB184" s="14"/>
+    </row>
+    <row r="185" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -9432,8 +12711,56 @@
       <c r="AD185" s="13"/>
       <c r="AE185" s="13"/>
       <c r="AF185" s="14"/>
-    </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG185" s="13"/>
+      <c r="AH185" s="13"/>
+      <c r="AI185" s="13"/>
+      <c r="AJ185" s="13"/>
+      <c r="AK185" s="13"/>
+      <c r="AL185" s="13"/>
+      <c r="AM185" s="13"/>
+      <c r="AN185" s="14"/>
+      <c r="AO185" s="13"/>
+      <c r="AP185" s="13"/>
+      <c r="AQ185" s="13"/>
+      <c r="AR185" s="13"/>
+      <c r="AS185" s="13"/>
+      <c r="AT185" s="13"/>
+      <c r="AU185" s="13"/>
+      <c r="AV185" s="14"/>
+      <c r="AW185" s="13"/>
+      <c r="AX185" s="13"/>
+      <c r="AY185" s="13"/>
+      <c r="AZ185" s="13"/>
+      <c r="BA185" s="13"/>
+      <c r="BB185" s="13"/>
+      <c r="BC185" s="13"/>
+      <c r="BD185" s="14"/>
+      <c r="BE185" s="13"/>
+      <c r="BF185" s="13"/>
+      <c r="BG185" s="13"/>
+      <c r="BH185" s="13"/>
+      <c r="BI185" s="13"/>
+      <c r="BJ185" s="13"/>
+      <c r="BK185" s="13"/>
+      <c r="BL185" s="14"/>
+      <c r="BM185" s="13"/>
+      <c r="BN185" s="13"/>
+      <c r="BO185" s="13"/>
+      <c r="BP185" s="13"/>
+      <c r="BQ185" s="13"/>
+      <c r="BR185" s="13"/>
+      <c r="BS185" s="13"/>
+      <c r="BT185" s="14"/>
+      <c r="BU185" s="13"/>
+      <c r="BV185" s="13"/>
+      <c r="BW185" s="13"/>
+      <c r="BX185" s="13"/>
+      <c r="BY185" s="13"/>
+      <c r="BZ185" s="13"/>
+      <c r="CA185" s="13"/>
+      <c r="CB185" s="14"/>
+    </row>
+    <row r="186" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -9459,8 +12786,56 @@
       <c r="AD186" s="13"/>
       <c r="AE186" s="13"/>
       <c r="AF186" s="14"/>
-    </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG186" s="13"/>
+      <c r="AH186" s="13"/>
+      <c r="AI186" s="13"/>
+      <c r="AJ186" s="13"/>
+      <c r="AK186" s="13"/>
+      <c r="AL186" s="13"/>
+      <c r="AM186" s="13"/>
+      <c r="AN186" s="14"/>
+      <c r="AO186" s="13"/>
+      <c r="AP186" s="13"/>
+      <c r="AQ186" s="13"/>
+      <c r="AR186" s="13"/>
+      <c r="AS186" s="13"/>
+      <c r="AT186" s="13"/>
+      <c r="AU186" s="13"/>
+      <c r="AV186" s="14"/>
+      <c r="AW186" s="13"/>
+      <c r="AX186" s="13"/>
+      <c r="AY186" s="13"/>
+      <c r="AZ186" s="13"/>
+      <c r="BA186" s="13"/>
+      <c r="BB186" s="13"/>
+      <c r="BC186" s="13"/>
+      <c r="BD186" s="14"/>
+      <c r="BE186" s="13"/>
+      <c r="BF186" s="13"/>
+      <c r="BG186" s="13"/>
+      <c r="BH186" s="13"/>
+      <c r="BI186" s="13"/>
+      <c r="BJ186" s="13"/>
+      <c r="BK186" s="13"/>
+      <c r="BL186" s="14"/>
+      <c r="BM186" s="13"/>
+      <c r="BN186" s="13"/>
+      <c r="BO186" s="13"/>
+      <c r="BP186" s="13"/>
+      <c r="BQ186" s="13"/>
+      <c r="BR186" s="13"/>
+      <c r="BS186" s="13"/>
+      <c r="BT186" s="14"/>
+      <c r="BU186" s="13"/>
+      <c r="BV186" s="13"/>
+      <c r="BW186" s="13"/>
+      <c r="BX186" s="13"/>
+      <c r="BY186" s="13"/>
+      <c r="BZ186" s="13"/>
+      <c r="CA186" s="13"/>
+      <c r="CB186" s="14"/>
+    </row>
+    <row r="187" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H187" s="3"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="5" t="s">
@@ -9483,8 +12858,12 @@
       </c>
       <c r="X187" s="3"/>
       <c r="AF187" s="3"/>
-    </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN187" s="3"/>
+      <c r="AV187" s="3"/>
+      <c r="BD187" s="3"/>
+      <c r="BL187" s="3"/>
+    </row>
+    <row r="188" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>12</v>
       </c>
@@ -9560,8 +12939,60 @@
         <v>17</v>
       </c>
       <c r="AF188" s="3"/>
-    </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG188" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK188" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL188" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN188" s="3"/>
+      <c r="AO188" s="5"/>
+      <c r="AP188" s="5"/>
+      <c r="AR188" s="5"/>
+      <c r="AS188" s="5"/>
+      <c r="AT188" s="5"/>
+      <c r="AU188" s="5"/>
+      <c r="AV188" s="3"/>
+      <c r="AW188" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA188" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB188" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD188" s="3"/>
+      <c r="BE188" s="5"/>
+      <c r="BF188" s="5"/>
+      <c r="BH188" s="5"/>
+      <c r="BI188" s="5"/>
+      <c r="BJ188" s="5"/>
+      <c r="BK188" s="5"/>
+      <c r="BL188" s="3"/>
+    </row>
+    <row r="189" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>7</v>
       </c>
@@ -9624,8 +13055,60 @@
       </c>
       <c r="AE189" s="13"/>
       <c r="AF189" s="14"/>
-    </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG189" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH189" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI189" s="13"/>
+      <c r="AJ189" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK189" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM189" s="13"/>
+      <c r="AN189" s="14"/>
+      <c r="AO189" s="13"/>
+      <c r="AP189" s="13"/>
+      <c r="AQ189" s="13"/>
+      <c r="AR189" s="24"/>
+      <c r="AS189" s="24"/>
+      <c r="AT189" s="13"/>
+      <c r="AU189" s="13"/>
+      <c r="AV189" s="14"/>
+      <c r="AW189" s="13">
+        <v>7</v>
+      </c>
+      <c r="AX189" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY189" s="13"/>
+      <c r="AZ189" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA189" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC189" s="13"/>
+      <c r="BD189" s="14"/>
+      <c r="BE189" s="13"/>
+      <c r="BF189" s="13"/>
+      <c r="BG189" s="13"/>
+      <c r="BH189" s="24"/>
+      <c r="BI189" s="24"/>
+      <c r="BJ189" s="13"/>
+      <c r="BK189" s="13"/>
+      <c r="BL189" s="14"/>
+    </row>
+    <row r="190" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -9658,8 +13141,40 @@
       <c r="AD190" s="13"/>
       <c r="AE190" s="13"/>
       <c r="AF190" s="14"/>
-    </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG190" s="13"/>
+      <c r="AH190" s="13"/>
+      <c r="AI190" s="13"/>
+      <c r="AJ190" s="13"/>
+      <c r="AK190" s="13"/>
+      <c r="AL190" s="13"/>
+      <c r="AM190" s="13"/>
+      <c r="AN190" s="14"/>
+      <c r="AO190" s="13"/>
+      <c r="AP190" s="13"/>
+      <c r="AQ190" s="13"/>
+      <c r="AR190" s="13"/>
+      <c r="AS190" s="13"/>
+      <c r="AT190" s="13"/>
+      <c r="AU190" s="13"/>
+      <c r="AV190" s="14"/>
+      <c r="AW190" s="13"/>
+      <c r="AX190" s="13"/>
+      <c r="AY190" s="13"/>
+      <c r="AZ190" s="13"/>
+      <c r="BA190" s="13"/>
+      <c r="BB190" s="13"/>
+      <c r="BC190" s="13"/>
+      <c r="BD190" s="14"/>
+      <c r="BE190" s="13"/>
+      <c r="BF190" s="13"/>
+      <c r="BG190" s="13"/>
+      <c r="BH190" s="13"/>
+      <c r="BI190" s="13"/>
+      <c r="BJ190" s="13"/>
+      <c r="BK190" s="13"/>
+      <c r="BL190" s="14"/>
+    </row>
+    <row r="191" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -9685,8 +13200,40 @@
       <c r="AD191" s="13"/>
       <c r="AE191" s="13"/>
       <c r="AF191" s="14"/>
-    </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG191" s="13"/>
+      <c r="AH191" s="13"/>
+      <c r="AI191" s="13"/>
+      <c r="AJ191" s="13"/>
+      <c r="AK191" s="13"/>
+      <c r="AL191" s="13"/>
+      <c r="AM191" s="13"/>
+      <c r="AN191" s="14"/>
+      <c r="AO191" s="13"/>
+      <c r="AP191" s="13"/>
+      <c r="AQ191" s="13"/>
+      <c r="AR191" s="13"/>
+      <c r="AS191" s="13"/>
+      <c r="AT191" s="13"/>
+      <c r="AU191" s="13"/>
+      <c r="AV191" s="14"/>
+      <c r="AW191" s="13"/>
+      <c r="AX191" s="13"/>
+      <c r="AY191" s="13"/>
+      <c r="AZ191" s="13"/>
+      <c r="BA191" s="13"/>
+      <c r="BB191" s="13"/>
+      <c r="BC191" s="13"/>
+      <c r="BD191" s="14"/>
+      <c r="BE191" s="13"/>
+      <c r="BF191" s="13"/>
+      <c r="BG191" s="13"/>
+      <c r="BH191" s="13"/>
+      <c r="BI191" s="13"/>
+      <c r="BJ191" s="13"/>
+      <c r="BK191" s="13"/>
+      <c r="BL191" s="14"/>
+    </row>
+    <row r="192" spans="1:80" x14ac:dyDescent="0.25">
       <c r="H192" s="3"/>
       <c r="P192" s="3"/>
       <c r="Q192" s="5" t="s">
@@ -9709,8 +13256,9 @@
       </c>
       <c r="X192" s="3"/>
       <c r="AF192" s="3"/>
-    </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN192" s="3"/>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>12</v>
       </c>
@@ -9786,8 +13334,15 @@
         <v>17</v>
       </c>
       <c r="AF193" s="3"/>
-    </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG193" s="5"/>
+      <c r="AH193" s="5"/>
+      <c r="AJ193" s="5"/>
+      <c r="AK193" s="5"/>
+      <c r="AL193" s="5"/>
+      <c r="AM193" s="5"/>
+      <c r="AN193" s="3"/>
+    </row>
+    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>8</v>
       </c>
@@ -9850,8 +13405,16 @@
       </c>
       <c r="AE194" s="13"/>
       <c r="AF194" s="14"/>
-    </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG194" s="13"/>
+      <c r="AH194" s="13"/>
+      <c r="AI194" s="13"/>
+      <c r="AJ194" s="24"/>
+      <c r="AK194" s="24"/>
+      <c r="AL194" s="13"/>
+      <c r="AM194" s="13"/>
+      <c r="AN194" s="14"/>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -9884,8 +13447,16 @@
       <c r="AD195" s="13"/>
       <c r="AE195" s="13"/>
       <c r="AF195" s="14"/>
-    </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG195" s="13"/>
+      <c r="AH195" s="13"/>
+      <c r="AI195" s="13"/>
+      <c r="AJ195" s="13"/>
+      <c r="AK195" s="13"/>
+      <c r="AL195" s="13"/>
+      <c r="AM195" s="13"/>
+      <c r="AN195" s="14"/>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -9911,8 +13482,16 @@
       <c r="AD196" s="13"/>
       <c r="AE196" s="13"/>
       <c r="AF196" s="14"/>
-    </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG196" s="13"/>
+      <c r="AH196" s="13"/>
+      <c r="AI196" s="13"/>
+      <c r="AJ196" s="13"/>
+      <c r="AK196" s="13"/>
+      <c r="AL196" s="13"/>
+      <c r="AM196" s="13"/>
+      <c r="AN196" s="14"/>
+    </row>
+    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
       <c r="H197" s="3"/>
       <c r="P197" s="3"/>
       <c r="Q197" s="5" t="s">
@@ -9935,8 +13514,9 @@
       </c>
       <c r="X197" s="3"/>
       <c r="AF197" s="3"/>
-    </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AN197" s="3"/>
+    </row>
+    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
@@ -10012,8 +13592,15 @@
         <v>17</v>
       </c>
       <c r="AF198" s="3"/>
-    </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG198" s="5"/>
+      <c r="AH198" s="5"/>
+      <c r="AJ198" s="5"/>
+      <c r="AK198" s="5"/>
+      <c r="AL198" s="5"/>
+      <c r="AM198" s="5"/>
+      <c r="AN198" s="3"/>
+    </row>
+    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
         <v>9</v>
       </c>
@@ -10076,8 +13663,16 @@
       </c>
       <c r="AE199" s="13"/>
       <c r="AF199" s="14"/>
-    </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG199" s="13"/>
+      <c r="AH199" s="13"/>
+      <c r="AI199" s="13"/>
+      <c r="AJ199" s="24"/>
+      <c r="AK199" s="24"/>
+      <c r="AL199" s="13"/>
+      <c r="AM199" s="13"/>
+      <c r="AN199" s="14"/>
+    </row>
+    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -10110,8 +13705,16 @@
       <c r="AD200" s="13"/>
       <c r="AE200" s="13"/>
       <c r="AF200" s="14"/>
-    </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG200" s="13"/>
+      <c r="AH200" s="13"/>
+      <c r="AI200" s="13"/>
+      <c r="AJ200" s="13"/>
+      <c r="AK200" s="13"/>
+      <c r="AL200" s="13"/>
+      <c r="AM200" s="13"/>
+      <c r="AN200" s="14"/>
+    </row>
+    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -10137,8 +13740,16 @@
       <c r="AD201" s="13"/>
       <c r="AE201" s="13"/>
       <c r="AF201" s="14"/>
-    </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG201" s="13"/>
+      <c r="AH201" s="13"/>
+      <c r="AI201" s="13"/>
+      <c r="AJ201" s="13"/>
+      <c r="AK201" s="13"/>
+      <c r="AL201" s="13"/>
+      <c r="AM201" s="13"/>
+      <c r="AN201" s="14"/>
+    </row>
+    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q202" s="5" t="s">
         <v>12</v>
       </c>
@@ -10160,7 +13771,7 @@
       <c r="X202" s="3"/>
       <c r="AF202" s="3"/>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q203" s="13">
         <v>9</v>
       </c>
@@ -10181,7 +13792,7 @@
       <c r="X203" s="14"/>
       <c r="AF203" s="3"/>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q204" s="13"/>
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
@@ -10192,7 +13803,7 @@
       <c r="X204" s="14"/>
       <c r="AF204" s="3"/>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q205" s="13"/>
       <c r="R205" s="13"/>
       <c r="S205" s="13"/>
@@ -10203,11 +13814,11 @@
       <c r="X205" s="14"/>
       <c r="AF205" s="3"/>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
       <c r="X206" s="3"/>
       <c r="AF206" s="3"/>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q207" s="5" t="s">
         <v>12</v>
       </c>
@@ -10229,7 +13840,7 @@
       <c r="X207" s="3"/>
       <c r="AF207" s="3"/>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Q208" s="13">
         <v>10</v>
       </c>
@@ -13222,9 +16833,157 @@
       <c r="H317" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="778">
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B285:C285"/>
+  <mergeCells count="1096">
+    <mergeCell ref="BU184:BU186"/>
+    <mergeCell ref="BV184:BW186"/>
+    <mergeCell ref="BX184:BX186"/>
+    <mergeCell ref="BY184:BY186"/>
+    <mergeCell ref="BZ184:BZ186"/>
+    <mergeCell ref="CA184:CB186"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J13:M15"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="BU174:BU176"/>
+    <mergeCell ref="BV174:BW176"/>
+    <mergeCell ref="BX174:BX176"/>
+    <mergeCell ref="BY174:BY176"/>
+    <mergeCell ref="BZ174:BZ176"/>
+    <mergeCell ref="CA174:CB176"/>
+    <mergeCell ref="BU179:BU181"/>
+    <mergeCell ref="BV179:BW181"/>
+    <mergeCell ref="BX179:BX181"/>
+    <mergeCell ref="BY179:BY181"/>
+    <mergeCell ref="BZ179:BZ181"/>
+    <mergeCell ref="CA179:CB181"/>
+    <mergeCell ref="BV164:BW166"/>
+    <mergeCell ref="BX164:BX166"/>
+    <mergeCell ref="BY164:BY166"/>
+    <mergeCell ref="BZ164:BZ166"/>
+    <mergeCell ref="CA164:CB166"/>
+    <mergeCell ref="BU169:BU171"/>
+    <mergeCell ref="BV169:BW171"/>
+    <mergeCell ref="BX169:BX171"/>
+    <mergeCell ref="BY169:BY171"/>
+    <mergeCell ref="BZ169:BZ171"/>
+    <mergeCell ref="CA169:CB171"/>
+    <mergeCell ref="BM184:BM186"/>
+    <mergeCell ref="BN184:BO186"/>
+    <mergeCell ref="BP184:BP186"/>
+    <mergeCell ref="BQ184:BQ186"/>
+    <mergeCell ref="BR184:BR186"/>
+    <mergeCell ref="BS184:BT186"/>
+    <mergeCell ref="BU128:BW128"/>
+    <mergeCell ref="BX128:CB128"/>
+    <mergeCell ref="BU130:CB130"/>
+    <mergeCell ref="BV132:BW132"/>
+    <mergeCell ref="BV134:BW134"/>
+    <mergeCell ref="BV136:BY136"/>
+    <mergeCell ref="BV138:BY138"/>
+    <mergeCell ref="BV140:BY142"/>
+    <mergeCell ref="BV144:BY146"/>
+    <mergeCell ref="BV148:BY150"/>
+    <mergeCell ref="BV152:BY154"/>
+    <mergeCell ref="BU159:BU161"/>
+    <mergeCell ref="BV159:BW161"/>
+    <mergeCell ref="BX159:BX161"/>
+    <mergeCell ref="BY159:BY161"/>
+    <mergeCell ref="BZ159:BZ161"/>
+    <mergeCell ref="CA159:CB161"/>
+    <mergeCell ref="BU164:BU166"/>
+    <mergeCell ref="BM174:BM176"/>
+    <mergeCell ref="BN174:BO176"/>
+    <mergeCell ref="BP174:BP176"/>
+    <mergeCell ref="BQ174:BQ176"/>
+    <mergeCell ref="BR174:BR176"/>
+    <mergeCell ref="BS174:BT176"/>
+    <mergeCell ref="BM179:BM181"/>
+    <mergeCell ref="BN179:BO181"/>
+    <mergeCell ref="BP179:BP181"/>
+    <mergeCell ref="BQ179:BQ181"/>
+    <mergeCell ref="BR179:BR181"/>
+    <mergeCell ref="BS179:BT181"/>
+    <mergeCell ref="BN164:BO166"/>
+    <mergeCell ref="BP164:BP166"/>
+    <mergeCell ref="BQ164:BQ166"/>
+    <mergeCell ref="BR164:BR166"/>
+    <mergeCell ref="BS164:BT166"/>
+    <mergeCell ref="BM169:BM171"/>
+    <mergeCell ref="BN169:BO171"/>
+    <mergeCell ref="BP169:BP171"/>
+    <mergeCell ref="BQ169:BQ171"/>
+    <mergeCell ref="BR169:BR171"/>
+    <mergeCell ref="BS169:BT171"/>
+    <mergeCell ref="BE189:BE191"/>
+    <mergeCell ref="BF189:BG191"/>
+    <mergeCell ref="BH189:BH191"/>
+    <mergeCell ref="BI189:BI191"/>
+    <mergeCell ref="BJ189:BJ191"/>
+    <mergeCell ref="BK189:BL191"/>
+    <mergeCell ref="BM128:BO128"/>
+    <mergeCell ref="BP128:BT128"/>
+    <mergeCell ref="BM130:BT130"/>
+    <mergeCell ref="BN132:BO132"/>
+    <mergeCell ref="BN134:BO134"/>
+    <mergeCell ref="BN136:BQ136"/>
+    <mergeCell ref="BN138:BQ138"/>
+    <mergeCell ref="BN140:BQ142"/>
+    <mergeCell ref="BN144:BQ146"/>
+    <mergeCell ref="BN148:BQ150"/>
+    <mergeCell ref="BN152:BQ154"/>
+    <mergeCell ref="BM159:BM161"/>
+    <mergeCell ref="BN159:BO161"/>
+    <mergeCell ref="BP159:BP161"/>
+    <mergeCell ref="BQ159:BQ161"/>
+    <mergeCell ref="BR159:BR161"/>
+    <mergeCell ref="BS159:BT161"/>
+    <mergeCell ref="BM164:BM166"/>
+    <mergeCell ref="BE179:BE181"/>
+    <mergeCell ref="BF179:BG181"/>
+    <mergeCell ref="BH179:BH181"/>
+    <mergeCell ref="BI179:BI181"/>
+    <mergeCell ref="BJ179:BJ181"/>
+    <mergeCell ref="BK179:BL181"/>
+    <mergeCell ref="BE184:BE186"/>
+    <mergeCell ref="BF184:BG186"/>
+    <mergeCell ref="BH184:BH186"/>
+    <mergeCell ref="BI184:BI186"/>
+    <mergeCell ref="BJ184:BJ186"/>
+    <mergeCell ref="BK184:BL186"/>
+    <mergeCell ref="BE169:BE171"/>
+    <mergeCell ref="BF169:BG171"/>
+    <mergeCell ref="BH169:BH171"/>
+    <mergeCell ref="BI169:BI171"/>
+    <mergeCell ref="BJ169:BJ171"/>
+    <mergeCell ref="BK169:BL171"/>
+    <mergeCell ref="BE174:BE176"/>
+    <mergeCell ref="BF174:BG176"/>
+    <mergeCell ref="BH174:BH176"/>
+    <mergeCell ref="BI174:BI176"/>
+    <mergeCell ref="BJ174:BJ176"/>
+    <mergeCell ref="BK174:BL176"/>
+    <mergeCell ref="BF148:BI150"/>
+    <mergeCell ref="BF152:BI154"/>
+    <mergeCell ref="BE159:BE161"/>
+    <mergeCell ref="BF159:BG161"/>
+    <mergeCell ref="BH159:BH161"/>
+    <mergeCell ref="BI159:BI161"/>
+    <mergeCell ref="BJ159:BJ161"/>
+    <mergeCell ref="BK159:BL161"/>
+    <mergeCell ref="BE164:BE166"/>
+    <mergeCell ref="BF164:BG166"/>
+    <mergeCell ref="BH164:BH166"/>
+    <mergeCell ref="BI164:BI166"/>
+    <mergeCell ref="BJ164:BJ166"/>
+    <mergeCell ref="BK164:BL166"/>
+    <mergeCell ref="BE128:BG128"/>
+    <mergeCell ref="BH128:BL128"/>
+    <mergeCell ref="BE130:BL130"/>
+    <mergeCell ref="BF132:BG132"/>
+    <mergeCell ref="BF134:BG134"/>
+    <mergeCell ref="BF136:BI136"/>
+    <mergeCell ref="BF138:BI138"/>
+    <mergeCell ref="BF140:BI142"/>
+    <mergeCell ref="BF144:BI146"/>
     <mergeCell ref="B287:E287"/>
     <mergeCell ref="B289:E289"/>
     <mergeCell ref="F276:F278"/>
@@ -13245,12 +17004,17 @@
     <mergeCell ref="D310:D312"/>
     <mergeCell ref="E310:E312"/>
     <mergeCell ref="F310:F312"/>
-    <mergeCell ref="R255:U255"/>
-    <mergeCell ref="R257:U259"/>
-    <mergeCell ref="R261:U263"/>
-    <mergeCell ref="R265:U267"/>
-    <mergeCell ref="V276:V278"/>
-    <mergeCell ref="W276:X278"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="E276:E278"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="B257:E259"/>
+    <mergeCell ref="B261:E263"/>
+    <mergeCell ref="B265:E267"/>
+    <mergeCell ref="B269:E271"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="B276:C278"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B285:C285"/>
     <mergeCell ref="A279:C279"/>
     <mergeCell ref="D279:H279"/>
     <mergeCell ref="A281:H281"/>
@@ -13260,8 +17024,6 @@
     <mergeCell ref="J276:K278"/>
     <mergeCell ref="L276:L278"/>
     <mergeCell ref="M276:M278"/>
-    <mergeCell ref="N276:N278"/>
-    <mergeCell ref="O276:P278"/>
     <mergeCell ref="Q245:S245"/>
     <mergeCell ref="R269:U271"/>
     <mergeCell ref="Q276:Q278"/>
@@ -13278,15 +17040,14 @@
     <mergeCell ref="J257:M259"/>
     <mergeCell ref="J261:M263"/>
     <mergeCell ref="T245:X245"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B257:E259"/>
-    <mergeCell ref="B261:E263"/>
-    <mergeCell ref="B265:E267"/>
-    <mergeCell ref="B269:E271"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="B276:C278"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="E276:E278"/>
+    <mergeCell ref="R255:U255"/>
+    <mergeCell ref="R257:U259"/>
+    <mergeCell ref="R261:U263"/>
+    <mergeCell ref="R265:U267"/>
+    <mergeCell ref="V276:V278"/>
+    <mergeCell ref="W276:X278"/>
+    <mergeCell ref="N276:N278"/>
+    <mergeCell ref="O276:P278"/>
     <mergeCell ref="BJ242:BJ244"/>
     <mergeCell ref="BK242:BL244"/>
     <mergeCell ref="AZ211:BD211"/>
@@ -13520,6 +17281,8 @@
     <mergeCell ref="N199:N201"/>
     <mergeCell ref="M179:M181"/>
     <mergeCell ref="N179:N181"/>
+    <mergeCell ref="J179:K181"/>
+    <mergeCell ref="L179:L181"/>
     <mergeCell ref="R148:U150"/>
     <mergeCell ref="R152:U154"/>
     <mergeCell ref="Q159:Q161"/>
@@ -13554,8 +17317,6 @@
     <mergeCell ref="N184:N186"/>
     <mergeCell ref="O184:P186"/>
     <mergeCell ref="I179:I181"/>
-    <mergeCell ref="J179:K181"/>
-    <mergeCell ref="L179:L181"/>
     <mergeCell ref="J148:M150"/>
     <mergeCell ref="J152:M154"/>
     <mergeCell ref="I159:I161"/>
@@ -13891,9 +17652,6 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="R13:U15"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M15"/>
-    <mergeCell ref="J9:M9"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Q3:X3"/>
@@ -14001,763 +17759,1265 @@
     <mergeCell ref="AC194:AC196"/>
     <mergeCell ref="AD194:AD196"/>
     <mergeCell ref="AE194:AF196"/>
+    <mergeCell ref="AG128:AI128"/>
+    <mergeCell ref="AJ128:AN128"/>
+    <mergeCell ref="AG130:AN130"/>
+    <mergeCell ref="AH132:AI132"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AH136:AK136"/>
+    <mergeCell ref="AH138:AK138"/>
+    <mergeCell ref="AH140:AK142"/>
+    <mergeCell ref="AH144:AK146"/>
+    <mergeCell ref="AH148:AK150"/>
+    <mergeCell ref="AH152:AK154"/>
+    <mergeCell ref="AG159:AG161"/>
+    <mergeCell ref="AH159:AI161"/>
+    <mergeCell ref="AJ159:AJ161"/>
+    <mergeCell ref="AK159:AK161"/>
+    <mergeCell ref="AL159:AL161"/>
+    <mergeCell ref="AM159:AN161"/>
+    <mergeCell ref="AG164:AG166"/>
+    <mergeCell ref="AH164:AI166"/>
+    <mergeCell ref="AJ164:AJ166"/>
+    <mergeCell ref="AK164:AK166"/>
+    <mergeCell ref="AL164:AL166"/>
+    <mergeCell ref="AM164:AN166"/>
+    <mergeCell ref="AG169:AG171"/>
+    <mergeCell ref="AH169:AI171"/>
+    <mergeCell ref="AJ169:AJ171"/>
+    <mergeCell ref="AK169:AK171"/>
+    <mergeCell ref="AL169:AL171"/>
+    <mergeCell ref="AM169:AN171"/>
+    <mergeCell ref="AG174:AG176"/>
+    <mergeCell ref="AH174:AI176"/>
+    <mergeCell ref="AJ174:AJ176"/>
+    <mergeCell ref="AK174:AK176"/>
+    <mergeCell ref="AL174:AL176"/>
+    <mergeCell ref="AM174:AN176"/>
+    <mergeCell ref="AG179:AG181"/>
+    <mergeCell ref="AH179:AI181"/>
+    <mergeCell ref="AJ179:AJ181"/>
+    <mergeCell ref="AK179:AK181"/>
+    <mergeCell ref="AL179:AL181"/>
+    <mergeCell ref="AM179:AN181"/>
+    <mergeCell ref="AG184:AG186"/>
+    <mergeCell ref="AH184:AI186"/>
+    <mergeCell ref="AJ184:AJ186"/>
+    <mergeCell ref="AK184:AK186"/>
+    <mergeCell ref="AL184:AL186"/>
+    <mergeCell ref="AM184:AN186"/>
+    <mergeCell ref="AG189:AG191"/>
+    <mergeCell ref="AH189:AI191"/>
+    <mergeCell ref="AJ189:AJ191"/>
+    <mergeCell ref="AK189:AK191"/>
+    <mergeCell ref="AL189:AL191"/>
+    <mergeCell ref="AM189:AN191"/>
+    <mergeCell ref="AG194:AG196"/>
+    <mergeCell ref="AH194:AI196"/>
+    <mergeCell ref="AJ194:AJ196"/>
+    <mergeCell ref="AK194:AK196"/>
+    <mergeCell ref="AL194:AL196"/>
+    <mergeCell ref="AM194:AN196"/>
+    <mergeCell ref="AG199:AG201"/>
+    <mergeCell ref="AH199:AI201"/>
+    <mergeCell ref="AJ199:AJ201"/>
+    <mergeCell ref="AK199:AK201"/>
+    <mergeCell ref="AL199:AL201"/>
+    <mergeCell ref="AM199:AN201"/>
+    <mergeCell ref="AO128:AQ128"/>
+    <mergeCell ref="AR128:AV128"/>
+    <mergeCell ref="AO130:AV130"/>
+    <mergeCell ref="AP132:AQ132"/>
+    <mergeCell ref="AP134:AQ134"/>
+    <mergeCell ref="AP136:AS136"/>
+    <mergeCell ref="AP138:AS138"/>
+    <mergeCell ref="AP140:AS142"/>
+    <mergeCell ref="AP144:AS146"/>
+    <mergeCell ref="AP148:AS150"/>
+    <mergeCell ref="AP152:AS154"/>
+    <mergeCell ref="AO159:AO161"/>
+    <mergeCell ref="AP159:AQ161"/>
+    <mergeCell ref="AR159:AR161"/>
+    <mergeCell ref="AS159:AS161"/>
+    <mergeCell ref="AT159:AT161"/>
+    <mergeCell ref="AU159:AV161"/>
+    <mergeCell ref="AO164:AO166"/>
+    <mergeCell ref="AP164:AQ166"/>
+    <mergeCell ref="AR164:AR166"/>
+    <mergeCell ref="AS164:AS166"/>
+    <mergeCell ref="AT164:AT166"/>
+    <mergeCell ref="AU164:AV166"/>
+    <mergeCell ref="AO169:AO171"/>
+    <mergeCell ref="AP169:AQ171"/>
+    <mergeCell ref="AR169:AR171"/>
+    <mergeCell ref="AS169:AS171"/>
+    <mergeCell ref="AT169:AT171"/>
+    <mergeCell ref="AU169:AV171"/>
+    <mergeCell ref="AO174:AO176"/>
+    <mergeCell ref="AP174:AQ176"/>
+    <mergeCell ref="AR174:AR176"/>
+    <mergeCell ref="AS174:AS176"/>
+    <mergeCell ref="AT174:AT176"/>
+    <mergeCell ref="AU174:AV176"/>
+    <mergeCell ref="AO179:AO181"/>
+    <mergeCell ref="AP179:AQ181"/>
+    <mergeCell ref="AR179:AR181"/>
+    <mergeCell ref="AS179:AS181"/>
+    <mergeCell ref="AT179:AT181"/>
+    <mergeCell ref="AU179:AV181"/>
+    <mergeCell ref="AO184:AO186"/>
+    <mergeCell ref="AP184:AQ186"/>
+    <mergeCell ref="AR184:AR186"/>
+    <mergeCell ref="AS184:AS186"/>
+    <mergeCell ref="AT184:AT186"/>
+    <mergeCell ref="AU184:AV186"/>
+    <mergeCell ref="AO189:AO191"/>
+    <mergeCell ref="AP189:AQ191"/>
+    <mergeCell ref="AR189:AR191"/>
+    <mergeCell ref="AS189:AS191"/>
+    <mergeCell ref="AT189:AT191"/>
+    <mergeCell ref="AU189:AV191"/>
+    <mergeCell ref="AW128:AY128"/>
+    <mergeCell ref="AZ128:BD128"/>
+    <mergeCell ref="AW130:BD130"/>
+    <mergeCell ref="AX132:AY132"/>
+    <mergeCell ref="AX134:AY134"/>
+    <mergeCell ref="AX136:BA136"/>
+    <mergeCell ref="AX138:BA138"/>
+    <mergeCell ref="AX140:BA142"/>
+    <mergeCell ref="AX144:BA146"/>
+    <mergeCell ref="AX148:BA150"/>
+    <mergeCell ref="AX152:BA154"/>
+    <mergeCell ref="AW159:AW161"/>
+    <mergeCell ref="AX159:AY161"/>
+    <mergeCell ref="AZ159:AZ161"/>
+    <mergeCell ref="BA159:BA161"/>
+    <mergeCell ref="BB159:BB161"/>
+    <mergeCell ref="BC159:BD161"/>
+    <mergeCell ref="AW164:AW166"/>
+    <mergeCell ref="AX164:AY166"/>
+    <mergeCell ref="AZ164:AZ166"/>
+    <mergeCell ref="BA164:BA166"/>
+    <mergeCell ref="BB164:BB166"/>
+    <mergeCell ref="BC164:BD166"/>
+    <mergeCell ref="AW169:AW171"/>
+    <mergeCell ref="AX169:AY171"/>
+    <mergeCell ref="AZ169:AZ171"/>
+    <mergeCell ref="BA169:BA171"/>
+    <mergeCell ref="BB169:BB171"/>
+    <mergeCell ref="BC169:BD171"/>
+    <mergeCell ref="AW174:AW176"/>
+    <mergeCell ref="AX174:AY176"/>
+    <mergeCell ref="AZ174:AZ176"/>
+    <mergeCell ref="BA174:BA176"/>
+    <mergeCell ref="BB174:BB176"/>
+    <mergeCell ref="BC174:BD176"/>
+    <mergeCell ref="AW189:AW191"/>
+    <mergeCell ref="AX189:AY191"/>
+    <mergeCell ref="AZ189:AZ191"/>
+    <mergeCell ref="BA189:BA191"/>
+    <mergeCell ref="BB189:BB191"/>
+    <mergeCell ref="BC189:BD191"/>
+    <mergeCell ref="AW179:AW181"/>
+    <mergeCell ref="AX179:AY181"/>
+    <mergeCell ref="AZ179:AZ181"/>
+    <mergeCell ref="BA179:BA181"/>
+    <mergeCell ref="BB179:BB181"/>
+    <mergeCell ref="BC179:BD181"/>
+    <mergeCell ref="AW184:AW186"/>
+    <mergeCell ref="AX184:AY186"/>
+    <mergeCell ref="AZ184:AZ186"/>
+    <mergeCell ref="BA184:BA186"/>
+    <mergeCell ref="BB184:BB186"/>
+    <mergeCell ref="BC184:BD186"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:B32 D32:G32">
-    <cfRule type="notContainsBlanks" dxfId="212" priority="203">
+    <cfRule type="notContainsBlanks" dxfId="273" priority="290">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B66 D66:G66">
-    <cfRule type="notContainsBlanks" dxfId="211" priority="194">
+    <cfRule type="notContainsBlanks" dxfId="272" priority="281">
       <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 D71:G71">
-    <cfRule type="notContainsBlanks" dxfId="210" priority="193">
+    <cfRule type="notContainsBlanks" dxfId="271" priority="280">
       <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 D76:G76">
-    <cfRule type="notContainsBlanks" dxfId="209" priority="192">
+    <cfRule type="notContainsBlanks" dxfId="270" priority="279">
       <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B81">
-    <cfRule type="notContainsBlanks" dxfId="208" priority="191">
+    <cfRule type="notContainsBlanks" dxfId="269" priority="278">
       <formula>LEN(TRIM(A81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:B86 D86:G86">
-    <cfRule type="notContainsBlanks" dxfId="207" priority="190">
+    <cfRule type="notContainsBlanks" dxfId="268" priority="277">
       <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:B125 D125:G125">
-    <cfRule type="notContainsBlanks" dxfId="206" priority="107">
+    <cfRule type="notContainsBlanks" dxfId="267" priority="194">
       <formula>LEN(TRIM(A125))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:B159 D159:G159">
-    <cfRule type="notContainsBlanks" dxfId="205" priority="98">
+    <cfRule type="notContainsBlanks" dxfId="266" priority="185">
       <formula>LEN(TRIM(A159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164:B164 D164:G164">
-    <cfRule type="notContainsBlanks" dxfId="204" priority="97">
+    <cfRule type="notContainsBlanks" dxfId="265" priority="184">
       <formula>LEN(TRIM(A164))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:B169 D169:G169">
-    <cfRule type="notContainsBlanks" dxfId="203" priority="96">
+    <cfRule type="notContainsBlanks" dxfId="264" priority="183">
       <formula>LEN(TRIM(A169))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:B174 D174:G174">
-    <cfRule type="notContainsBlanks" dxfId="202" priority="95">
+    <cfRule type="notContainsBlanks" dxfId="263" priority="182">
       <formula>LEN(TRIM(A174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179:B179">
-    <cfRule type="notContainsBlanks" dxfId="201" priority="94">
+    <cfRule type="notContainsBlanks" dxfId="262" priority="181">
       <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:B184">
-    <cfRule type="notContainsBlanks" dxfId="200" priority="93">
+    <cfRule type="notContainsBlanks" dxfId="261" priority="180">
       <formula>LEN(TRIM(A184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:B189">
-    <cfRule type="notContainsBlanks" dxfId="199" priority="92">
+    <cfRule type="notContainsBlanks" dxfId="260" priority="179">
       <formula>LEN(TRIM(A189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:B194">
-    <cfRule type="notContainsBlanks" dxfId="198" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="259" priority="178">
       <formula>LEN(TRIM(A194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:B199">
-    <cfRule type="notContainsBlanks" dxfId="197" priority="90">
+    <cfRule type="notContainsBlanks" dxfId="258" priority="177">
       <formula>LEN(TRIM(A199))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242:B242 D242:G242">
-    <cfRule type="notContainsBlanks" dxfId="196" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="257" priority="124">
       <formula>LEN(TRIM(A242))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276:B276 D276:G276">
-    <cfRule type="notContainsBlanks" dxfId="195" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="256" priority="95">
       <formula>LEN(TRIM(A276))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A310:B310 D310:G310">
-    <cfRule type="notContainsBlanks" dxfId="194" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="255" priority="89">
       <formula>LEN(TRIM(A310))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A315:B315 D315:G315">
-    <cfRule type="notContainsBlanks" dxfId="193" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="254" priority="88">
       <formula>LEN(TRIM(A315))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 E5 B7 E7 B9:E9 B11 B13 B17 B21 B25">
-    <cfRule type="notContainsBlanks" dxfId="192" priority="217">
+    <cfRule type="notContainsBlanks" dxfId="253" priority="304">
       <formula>LEN(TRIM(B5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:C39 E39 B41 E41 B43:E43 B45 B47 B51 B55 B59">
-    <cfRule type="notContainsBlanks" dxfId="191" priority="195">
+    <cfRule type="notContainsBlanks" dxfId="252" priority="282">
       <formula>LEN(TRIM(B39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:C98 E98 B100 E100 B102:E102 B104 B106 B110 B114 B118">
-    <cfRule type="notContainsBlanks" dxfId="190" priority="108">
+    <cfRule type="notContainsBlanks" dxfId="251" priority="195">
       <formula>LEN(TRIM(B98))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:C132 E132 B134 E134 B136:E136 B138 B140 B144 B148 B152">
-    <cfRule type="notContainsBlanks" dxfId="189" priority="99">
+    <cfRule type="notContainsBlanks" dxfId="250" priority="186">
       <formula>LEN(TRIM(B132))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215:C215 E215 B217 E217 B219:E219 B221 B223 B227 B231 B235">
-    <cfRule type="notContainsBlanks" dxfId="188" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="249" priority="125">
       <formula>LEN(TRIM(B215))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B249:C249 E249 B251 E251 B253:E253 B255 B257 B261 B265 B269">
-    <cfRule type="notContainsBlanks" dxfId="187" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="248" priority="96">
       <formula>LEN(TRIM(B249))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B283:C283 E283 B285 E285 B287:E287 B289 B291 B295 B299 B303">
-    <cfRule type="notContainsBlanks" dxfId="186" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="247" priority="90">
       <formula>LEN(TRIM(B283))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:G81">
-    <cfRule type="notContainsBlanks" dxfId="185" priority="185">
+    <cfRule type="notContainsBlanks" dxfId="246" priority="272">
       <formula>LEN(TRIM(D81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:G179">
-    <cfRule type="notContainsBlanks" dxfId="184" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="245" priority="176">
       <formula>LEN(TRIM(D179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184:G184">
-    <cfRule type="notContainsBlanks" dxfId="183" priority="88">
+    <cfRule type="notContainsBlanks" dxfId="244" priority="175">
       <formula>LEN(TRIM(D184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189:G189">
-    <cfRule type="notContainsBlanks" dxfId="182" priority="87">
+    <cfRule type="notContainsBlanks" dxfId="243" priority="174">
       <formula>LEN(TRIM(D189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D194:G194">
-    <cfRule type="notContainsBlanks" dxfId="181" priority="86">
+    <cfRule type="notContainsBlanks" dxfId="242" priority="173">
       <formula>LEN(TRIM(D194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D199:G199">
-    <cfRule type="notContainsBlanks" dxfId="180" priority="85">
+    <cfRule type="notContainsBlanks" dxfId="241" priority="172">
       <formula>LEN(TRIM(D199))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:J32 L32:O32">
-    <cfRule type="notContainsBlanks" dxfId="179" priority="198">
+    <cfRule type="notContainsBlanks" dxfId="240" priority="285">
       <formula>LEN(TRIM(I32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:J66 L66:O66">
-    <cfRule type="notContainsBlanks" dxfId="178" priority="183">
+    <cfRule type="notContainsBlanks" dxfId="239" priority="270">
       <formula>LEN(TRIM(I66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:J71">
-    <cfRule type="notContainsBlanks" dxfId="177" priority="182">
+    <cfRule type="notContainsBlanks" dxfId="238" priority="269">
       <formula>LEN(TRIM(I71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:J76">
-    <cfRule type="notContainsBlanks" dxfId="176" priority="181">
+    <cfRule type="notContainsBlanks" dxfId="237" priority="268">
       <formula>LEN(TRIM(I76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:J81">
-    <cfRule type="notContainsBlanks" dxfId="175" priority="180">
+    <cfRule type="notContainsBlanks" dxfId="236" priority="267">
       <formula>LEN(TRIM(I81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:J86">
-    <cfRule type="notContainsBlanks" dxfId="174" priority="178">
+    <cfRule type="notContainsBlanks" dxfId="235" priority="265">
       <formula>LEN(TRIM(I86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:J91">
-    <cfRule type="notContainsBlanks" dxfId="173" priority="177">
+    <cfRule type="notContainsBlanks" dxfId="234" priority="264">
       <formula>LEN(TRIM(I91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125:J125 L125:O125">
-    <cfRule type="notContainsBlanks" dxfId="172" priority="100">
+    <cfRule type="notContainsBlanks" dxfId="233" priority="187">
       <formula>LEN(TRIM(I125))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:J159 L159:O159">
-    <cfRule type="notContainsBlanks" dxfId="171" priority="83">
+    <cfRule type="notContainsBlanks" dxfId="232" priority="170">
       <formula>LEN(TRIM(I159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:J164 L164:O164">
-    <cfRule type="notContainsBlanks" dxfId="170" priority="82">
+    <cfRule type="notContainsBlanks" dxfId="231" priority="169">
       <formula>LEN(TRIM(I164))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169:J169 L169:O169">
-    <cfRule type="notContainsBlanks" dxfId="169" priority="81">
+    <cfRule type="notContainsBlanks" dxfId="230" priority="168">
       <formula>LEN(TRIM(I169))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I174:J174 L174:O174">
-    <cfRule type="notContainsBlanks" dxfId="168" priority="80">
+    <cfRule type="notContainsBlanks" dxfId="229" priority="167">
       <formula>LEN(TRIM(I174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179:J179">
-    <cfRule type="notContainsBlanks" dxfId="167" priority="79">
+    <cfRule type="notContainsBlanks" dxfId="228" priority="166">
       <formula>LEN(TRIM(I179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I184:J184">
-    <cfRule type="notContainsBlanks" dxfId="166" priority="78">
+    <cfRule type="notContainsBlanks" dxfId="227" priority="165">
       <formula>LEN(TRIM(I184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189:J189">
-    <cfRule type="notContainsBlanks" dxfId="165" priority="77">
+    <cfRule type="notContainsBlanks" dxfId="226" priority="164">
       <formula>LEN(TRIM(I189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194:J194">
-    <cfRule type="notContainsBlanks" dxfId="164" priority="76">
+    <cfRule type="notContainsBlanks" dxfId="225" priority="163">
       <formula>LEN(TRIM(I194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I199:J199">
-    <cfRule type="notContainsBlanks" dxfId="163" priority="75">
+    <cfRule type="notContainsBlanks" dxfId="224" priority="162">
       <formula>LEN(TRIM(I199))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I242:J242 L242:O242">
-    <cfRule type="notContainsBlanks" dxfId="162" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="223" priority="109">
       <formula>LEN(TRIM(I242))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I276:J276 L276:O276">
-    <cfRule type="notContainsBlanks" dxfId="161" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="222" priority="93">
       <formula>LEN(TRIM(I276))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="160" priority="189">
+    <cfRule type="notContainsBlanks" dxfId="221" priority="276">
       <formula>LEN(TRIM(J7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:K5 M5 M7 J9:M9 J11 J13 J17 J21 J25">
-    <cfRule type="notContainsBlanks" dxfId="159" priority="199">
+    <cfRule type="notContainsBlanks" dxfId="220" priority="286">
       <formula>LEN(TRIM(J5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:K39 M39 J41 M41 J43:M43 J45 J47 J51 J55 J59">
-    <cfRule type="notContainsBlanks" dxfId="158" priority="184">
+    <cfRule type="notContainsBlanks" dxfId="219" priority="271">
       <formula>LEN(TRIM(J39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:K98 M98 J100 M100 J102:M102 J104 J106 J110 J114 J118">
-    <cfRule type="notContainsBlanks" dxfId="157" priority="101">
+    <cfRule type="notContainsBlanks" dxfId="218" priority="188">
       <formula>LEN(TRIM(J98))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132:K132 M132 J134 M134 J136:M136 J138 J140 J144 J148 J152">
-    <cfRule type="notContainsBlanks" dxfId="156" priority="84">
+    <cfRule type="notContainsBlanks" dxfId="217" priority="171">
       <formula>LEN(TRIM(J132))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J215:K215 M215 J217 M217 J219:M219 J221 J223 J227 J231 J235">
-    <cfRule type="notContainsBlanks" dxfId="155" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="216" priority="110">
       <formula>LEN(TRIM(J215))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:K249 M249 J251 M251 J253:M253 J255 J257 J261 J265 J269">
-    <cfRule type="notContainsBlanks" dxfId="154" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="215" priority="94">
       <formula>LEN(TRIM(J249))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71:O71">
-    <cfRule type="notContainsBlanks" dxfId="153" priority="171">
+    <cfRule type="notContainsBlanks" dxfId="214" priority="258">
       <formula>LEN(TRIM(L71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76:O76">
-    <cfRule type="notContainsBlanks" dxfId="152" priority="170">
+    <cfRule type="notContainsBlanks" dxfId="213" priority="257">
       <formula>LEN(TRIM(L76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81:O81">
-    <cfRule type="notContainsBlanks" dxfId="151" priority="169">
+    <cfRule type="notContainsBlanks" dxfId="212" priority="256">
       <formula>LEN(TRIM(L81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L86:O86">
-    <cfRule type="notContainsBlanks" dxfId="150" priority="168">
+    <cfRule type="notContainsBlanks" dxfId="211" priority="255">
       <formula>LEN(TRIM(L86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L91:O91">
-    <cfRule type="notContainsBlanks" dxfId="149" priority="167">
+    <cfRule type="notContainsBlanks" dxfId="210" priority="254">
       <formula>LEN(TRIM(L91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L179:O179">
-    <cfRule type="notContainsBlanks" dxfId="148" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="209" priority="161">
       <formula>LEN(TRIM(L179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L184:O184">
-    <cfRule type="notContainsBlanks" dxfId="147" priority="73">
+    <cfRule type="notContainsBlanks" dxfId="208" priority="160">
       <formula>LEN(TRIM(L184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189:O189">
-    <cfRule type="notContainsBlanks" dxfId="146" priority="72">
+    <cfRule type="notContainsBlanks" dxfId="207" priority="159">
       <formula>LEN(TRIM(L189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L194:O194">
-    <cfRule type="notContainsBlanks" dxfId="145" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="206" priority="158">
       <formula>LEN(TRIM(L194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L199:O199">
-    <cfRule type="notContainsBlanks" dxfId="144" priority="70">
+    <cfRule type="notContainsBlanks" dxfId="205" priority="157">
       <formula>LEN(TRIM(L199))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:R32 T32:W32">
-    <cfRule type="notContainsBlanks" dxfId="143" priority="196">
+    <cfRule type="notContainsBlanks" dxfId="204" priority="283">
       <formula>LEN(TRIM(Q32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66:R66 T66:W66">
-    <cfRule type="notContainsBlanks" dxfId="142" priority="165">
+    <cfRule type="notContainsBlanks" dxfId="203" priority="252">
       <formula>LEN(TRIM(Q66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q71:R71">
-    <cfRule type="notContainsBlanks" dxfId="141" priority="164">
+    <cfRule type="notContainsBlanks" dxfId="202" priority="251">
       <formula>LEN(TRIM(Q71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q76:R76">
-    <cfRule type="notContainsBlanks" dxfId="140" priority="163">
+    <cfRule type="notContainsBlanks" dxfId="201" priority="250">
       <formula>LEN(TRIM(Q76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81:R81">
-    <cfRule type="notContainsBlanks" dxfId="139" priority="162">
+    <cfRule type="notContainsBlanks" dxfId="200" priority="249">
       <formula>LEN(TRIM(Q81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q86:R86">
-    <cfRule type="notContainsBlanks" dxfId="138" priority="160">
+    <cfRule type="notContainsBlanks" dxfId="199" priority="247">
       <formula>LEN(TRIM(Q86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91:R91">
-    <cfRule type="notContainsBlanks" dxfId="137" priority="159">
+    <cfRule type="notContainsBlanks" dxfId="198" priority="246">
       <formula>LEN(TRIM(Q91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q159:R159 T159:W159">
-    <cfRule type="notContainsBlanks" dxfId="136" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="197" priority="155">
       <formula>LEN(TRIM(Q159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q164:R164 T164:W164">
-    <cfRule type="notContainsBlanks" dxfId="135" priority="67">
+    <cfRule type="notContainsBlanks" dxfId="196" priority="154">
       <formula>LEN(TRIM(Q164))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q169:R169 T169:W169">
-    <cfRule type="notContainsBlanks" dxfId="134" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="195" priority="153">
       <formula>LEN(TRIM(Q169))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q174:R174 T174:W174">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="194" priority="126">
       <formula>LEN(TRIM(Q174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q183:R183 T183:W183">
-    <cfRule type="notContainsBlanks" dxfId="132" priority="65">
+    <cfRule type="notContainsBlanks" dxfId="193" priority="152">
       <formula>LEN(TRIM(Q183))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q188:R188">
-    <cfRule type="notContainsBlanks" dxfId="131" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="192" priority="151">
       <formula>LEN(TRIM(Q188))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q193:R193">
-    <cfRule type="notContainsBlanks" dxfId="130" priority="63">
+    <cfRule type="notContainsBlanks" dxfId="191" priority="150">
       <formula>LEN(TRIM(Q193))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:R198">
-    <cfRule type="notContainsBlanks" dxfId="129" priority="62">
+    <cfRule type="notContainsBlanks" dxfId="190" priority="149">
       <formula>LEN(TRIM(Q198))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:R203">
-    <cfRule type="notContainsBlanks" dxfId="128" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="189" priority="148">
       <formula>LEN(TRIM(Q203))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208:R208">
-    <cfRule type="notContainsBlanks" dxfId="127" priority="60">
+    <cfRule type="notContainsBlanks" dxfId="188" priority="147">
       <formula>LEN(TRIM(Q208))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q242:R242 T242:W242">
-    <cfRule type="notContainsBlanks" dxfId="126" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="187" priority="107">
       <formula>LEN(TRIM(Q242))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q276:R276 T276:W276">
-    <cfRule type="notContainsBlanks" dxfId="125" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="186" priority="91">
       <formula>LEN(TRIM(Q276))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="notContainsBlanks" dxfId="124" priority="188">
+    <cfRule type="notContainsBlanks" dxfId="185" priority="275">
       <formula>LEN(TRIM(R7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:S5 U5 U7 R9:U9 R11 R13 R17 R21 R25">
-    <cfRule type="notContainsBlanks" dxfId="123" priority="197">
+    <cfRule type="notContainsBlanks" dxfId="184" priority="284">
       <formula>LEN(TRIM(R5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39:S39 U39 R41 U41 R43:U43 R45 R47 R51 R55 R59">
-    <cfRule type="notContainsBlanks" dxfId="122" priority="166">
+    <cfRule type="notContainsBlanks" dxfId="183" priority="253">
       <formula>LEN(TRIM(R39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R132:S132 U132 R134 U134 R136:U136 R138 R140 R144 R148 R152">
-    <cfRule type="notContainsBlanks" dxfId="121" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="182" priority="156">
       <formula>LEN(TRIM(R132))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R215:S215 U215 R217 U217 R219:U219 R221 R223 R227 R231 R235">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="181" priority="108">
       <formula>LEN(TRIM(R215))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R249:S249 U249 R251 U251 R253:U253 R255 R257 R261 R265 R269">
-    <cfRule type="notContainsBlanks" dxfId="119" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="180" priority="92">
       <formula>LEN(TRIM(R249))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T71:W71">
-    <cfRule type="notContainsBlanks" dxfId="118" priority="139">
+    <cfRule type="notContainsBlanks" dxfId="179" priority="226">
       <formula>LEN(TRIM(T71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T76:W76">
-    <cfRule type="notContainsBlanks" dxfId="117" priority="140">
+    <cfRule type="notContainsBlanks" dxfId="178" priority="227">
       <formula>LEN(TRIM(T76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T81:W81">
-    <cfRule type="notContainsBlanks" dxfId="116" priority="141">
+    <cfRule type="notContainsBlanks" dxfId="177" priority="228">
       <formula>LEN(TRIM(T81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T86:W86">
-    <cfRule type="notContainsBlanks" dxfId="115" priority="142">
+    <cfRule type="notContainsBlanks" dxfId="176" priority="229">
       <formula>LEN(TRIM(T86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:W91">
-    <cfRule type="notContainsBlanks" dxfId="114" priority="143">
+    <cfRule type="notContainsBlanks" dxfId="175" priority="230">
       <formula>LEN(TRIM(T91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T188:W188">
-    <cfRule type="notContainsBlanks" dxfId="113" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="174" priority="146">
       <formula>LEN(TRIM(T188))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T193:W193">
-    <cfRule type="notContainsBlanks" dxfId="112" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="173" priority="145">
       <formula>LEN(TRIM(T193))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T198:W198">
-    <cfRule type="notContainsBlanks" dxfId="111" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="172" priority="144">
       <formula>LEN(TRIM(T198))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T203:W203">
-    <cfRule type="notContainsBlanks" dxfId="110" priority="56">
+    <cfRule type="notContainsBlanks" dxfId="171" priority="143">
       <formula>LEN(TRIM(T203))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T208:W208">
-    <cfRule type="notContainsBlanks" dxfId="109" priority="55">
+    <cfRule type="notContainsBlanks" dxfId="170" priority="142">
       <formula>LEN(TRIM(T208))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y66:Z66 AB66:AE66">
-    <cfRule type="notContainsBlanks" dxfId="108" priority="137">
+    <cfRule type="notContainsBlanks" dxfId="169" priority="224">
       <formula>LEN(TRIM(Y66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y71:Z71">
-    <cfRule type="notContainsBlanks" dxfId="107" priority="136">
+    <cfRule type="notContainsBlanks" dxfId="168" priority="223">
       <formula>LEN(TRIM(Y71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y76:Z76">
-    <cfRule type="notContainsBlanks" dxfId="106" priority="135">
+    <cfRule type="notContainsBlanks" dxfId="167" priority="222">
       <formula>LEN(TRIM(Y76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:Z81">
-    <cfRule type="notContainsBlanks" dxfId="105" priority="134">
+    <cfRule type="notContainsBlanks" dxfId="166" priority="221">
       <formula>LEN(TRIM(Y81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y86:Z86">
-    <cfRule type="notContainsBlanks" dxfId="104" priority="132">
+    <cfRule type="notContainsBlanks" dxfId="165" priority="219">
       <formula>LEN(TRIM(Y86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y91:Z91">
-    <cfRule type="notContainsBlanks" dxfId="103" priority="131">
+    <cfRule type="notContainsBlanks" dxfId="164" priority="218">
       <formula>LEN(TRIM(Y91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y159:Z159 AB159:AE159">
-    <cfRule type="notContainsBlanks" dxfId="102" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="163" priority="140">
       <formula>LEN(TRIM(Y159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Z164 AB164:AE164">
-    <cfRule type="notContainsBlanks" dxfId="101" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="162" priority="139">
       <formula>LEN(TRIM(Y164))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y169:Z169 AB169:AE169">
-    <cfRule type="notContainsBlanks" dxfId="100" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="161" priority="138">
       <formula>LEN(TRIM(Y169))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y174:Z174 AB174:AE174">
-    <cfRule type="notContainsBlanks" dxfId="99" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="160" priority="137">
       <formula>LEN(TRIM(Y174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y179:Z179">
-    <cfRule type="notContainsBlanks" dxfId="98" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="159" priority="136">
       <formula>LEN(TRIM(Y179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y184:Z184">
-    <cfRule type="notContainsBlanks" dxfId="97" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="158" priority="135">
       <formula>LEN(TRIM(Y184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y189:Z189">
-    <cfRule type="notContainsBlanks" dxfId="96" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="157" priority="134">
       <formula>LEN(TRIM(Y189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y194:Z194">
-    <cfRule type="notContainsBlanks" dxfId="95" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="156" priority="133">
       <formula>LEN(TRIM(Y194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y199:Z199">
-    <cfRule type="notContainsBlanks" dxfId="94" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="155" priority="132">
       <formula>LEN(TRIM(Y199))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y242:Z242 AB242:AE242">
-    <cfRule type="notContainsBlanks" dxfId="93" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="154" priority="105">
       <formula>LEN(TRIM(Y242))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z39:AA39 AC39 Z41 AC41 Z43:AC43 Z45 Z47 Z51 Z55 Z59">
-    <cfRule type="notContainsBlanks" dxfId="92" priority="138">
+    <cfRule type="notContainsBlanks" dxfId="153" priority="225">
       <formula>LEN(TRIM(Z39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z132:AA132 AC132 Z134 AC134 Z136:AC136 Z138 Z140 Z144 Z148 Z152">
-    <cfRule type="notContainsBlanks" dxfId="91" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="152" priority="141">
       <formula>LEN(TRIM(Z132))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z215:AA215 AC215 Z217 AC217 Z219:AC219 Z221 Z223 Z227 Z231 Z235">
-    <cfRule type="notContainsBlanks" dxfId="90" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="151" priority="106">
       <formula>LEN(TRIM(Z215))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB71:AE71">
-    <cfRule type="notContainsBlanks" dxfId="89" priority="121">
+    <cfRule type="notContainsBlanks" dxfId="150" priority="208">
       <formula>LEN(TRIM(AB71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB76:AE76">
-    <cfRule type="notContainsBlanks" dxfId="88" priority="122">
+    <cfRule type="notContainsBlanks" dxfId="149" priority="209">
       <formula>LEN(TRIM(AB76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB81:AE81">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="123">
+    <cfRule type="notContainsBlanks" dxfId="148" priority="210">
       <formula>LEN(TRIM(AB81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB86:AE86">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="124">
+    <cfRule type="notContainsBlanks" dxfId="147" priority="211">
       <formula>LEN(TRIM(AB86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB91:AE91">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="125">
+    <cfRule type="notContainsBlanks" dxfId="146" priority="212">
       <formula>LEN(TRIM(AB91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB179:AE179">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="145" priority="131">
       <formula>LEN(TRIM(AB179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB184:AE184">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="130">
       <formula>LEN(TRIM(AB184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB189:AE189">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="143" priority="129">
       <formula>LEN(TRIM(AB189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB194:AE194">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="142" priority="128">
       <formula>LEN(TRIM(AB194))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB199:AE199">
+    <cfRule type="notContainsBlanks" dxfId="141" priority="127">
+      <formula>LEN(TRIM(AB199))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG66:AH66 AJ66:AM66">
+    <cfRule type="notContainsBlanks" dxfId="140" priority="206">
+      <formula>LEN(TRIM(AG66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG71:AH71">
+    <cfRule type="notContainsBlanks" dxfId="139" priority="205">
+      <formula>LEN(TRIM(AG71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG76:AH76">
+    <cfRule type="notContainsBlanks" dxfId="138" priority="204">
+      <formula>LEN(TRIM(AG76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG81:AH81">
+    <cfRule type="notContainsBlanks" dxfId="137" priority="203">
+      <formula>LEN(TRIM(AG81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG159:AH159 AJ159:AM159">
+    <cfRule type="notContainsBlanks" dxfId="136" priority="86">
+      <formula>LEN(TRIM(AG159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG164:AH164 AJ164:AM164">
+    <cfRule type="notContainsBlanks" dxfId="135" priority="85">
+      <formula>LEN(TRIM(AG164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG169:AH169 AJ169:AM169">
+    <cfRule type="notContainsBlanks" dxfId="134" priority="84">
+      <formula>LEN(TRIM(AG169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG174:AH174 AJ174:AM174">
+    <cfRule type="notContainsBlanks" dxfId="133" priority="83">
+      <formula>LEN(TRIM(AG174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG179:AH179">
+    <cfRule type="notContainsBlanks" dxfId="132" priority="82">
+      <formula>LEN(TRIM(AG179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG184:AH184">
+    <cfRule type="notContainsBlanks" dxfId="131" priority="72">
+      <formula>LEN(TRIM(AG184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG189:AH189">
+    <cfRule type="notContainsBlanks" dxfId="130" priority="71">
+      <formula>LEN(TRIM(AG189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG194:AH194">
+    <cfRule type="notContainsBlanks" dxfId="129" priority="79">
+      <formula>LEN(TRIM(AG194))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG199:AH199">
+    <cfRule type="notContainsBlanks" dxfId="128" priority="78">
+      <formula>LEN(TRIM(AG199))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG242:AH242 AJ242:AM242">
+    <cfRule type="notContainsBlanks" dxfId="127" priority="103">
+      <formula>LEN(TRIM(AG242))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH39:AI39 AK39 AH41 AK41 AH43:AK43 AH45 AH47 AH51 AH55 AH59">
+    <cfRule type="notContainsBlanks" dxfId="126" priority="207">
+      <formula>LEN(TRIM(AH39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH132:AI132 AK132 AH134 AK134 AH136:AK136 AH138 AH140 AH144 AH148 AH152">
+    <cfRule type="notContainsBlanks" dxfId="125" priority="87">
+      <formula>LEN(TRIM(AH132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH215:AI215 AK215 AH217 AK217 AH219:AK219 AH221 AH223 AH227 AH231 AH235">
+    <cfRule type="notContainsBlanks" dxfId="124" priority="104">
+      <formula>LEN(TRIM(AH215))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ71:AM71">
+    <cfRule type="notContainsBlanks" dxfId="123" priority="196">
+      <formula>LEN(TRIM(AJ71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ76:AM76">
+    <cfRule type="notContainsBlanks" dxfId="122" priority="197">
+      <formula>LEN(TRIM(AJ76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ81:AM81">
+    <cfRule type="notContainsBlanks" dxfId="121" priority="198">
+      <formula>LEN(TRIM(AJ81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ179:AM179">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="77">
+      <formula>LEN(TRIM(AJ179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ184:AM184">
+    <cfRule type="notContainsBlanks" dxfId="119" priority="76">
+      <formula>LEN(TRIM(AJ184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ189:AM189">
+    <cfRule type="notContainsBlanks" dxfId="118" priority="70">
+      <formula>LEN(TRIM(AJ189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ194:AM194">
+    <cfRule type="notContainsBlanks" dxfId="117" priority="74">
+      <formula>LEN(TRIM(AJ194))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ199:AM199">
+    <cfRule type="notContainsBlanks" dxfId="116" priority="73">
+      <formula>LEN(TRIM(AJ199))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO159:AP159 AR159:AU159">
+    <cfRule type="notContainsBlanks" dxfId="115" priority="67">
+      <formula>LEN(TRIM(AO159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO164:AP164 AR164:AU164">
+    <cfRule type="notContainsBlanks" dxfId="114" priority="66">
+      <formula>LEN(TRIM(AO164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO169:AP169 AR169:AU169">
+    <cfRule type="notContainsBlanks" dxfId="113" priority="65">
+      <formula>LEN(TRIM(AO169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO174:AP174 AR174:AU174">
+    <cfRule type="notContainsBlanks" dxfId="112" priority="64">
+      <formula>LEN(TRIM(AO174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO179:AP179">
+    <cfRule type="notContainsBlanks" dxfId="111" priority="63">
+      <formula>LEN(TRIM(AO179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO184:AP184">
+    <cfRule type="notContainsBlanks" dxfId="110" priority="57">
+      <formula>LEN(TRIM(AO184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO189:AP189">
+    <cfRule type="notContainsBlanks" dxfId="109" priority="56">
+      <formula>LEN(TRIM(AO189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO242:AP242 AR242:AU242">
+    <cfRule type="notContainsBlanks" dxfId="108" priority="101">
+      <formula>LEN(TRIM(AO242))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP132:AQ132 AS132 AP134 AS134 AP136:AS136 AP138 AP140 AP144 AP148 AP152">
+    <cfRule type="notContainsBlanks" dxfId="107" priority="68">
+      <formula>LEN(TRIM(AP132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP215:AQ215 AS215 AP217 AS217 AP219:AS219 AP221 AP223 AP227 AP231 AP235">
+    <cfRule type="notContainsBlanks" dxfId="106" priority="102">
+      <formula>LEN(TRIM(AP215))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR179:AU179">
+    <cfRule type="notContainsBlanks" dxfId="105" priority="60">
+      <formula>LEN(TRIM(AR179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR184:AU184">
+    <cfRule type="notContainsBlanks" dxfId="104" priority="59">
+      <formula>LEN(TRIM(AR184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR189:AU189">
+    <cfRule type="notContainsBlanks" dxfId="103" priority="55">
+      <formula>LEN(TRIM(AR189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW242:AX242 AZ242:BC242">
+    <cfRule type="notContainsBlanks" dxfId="95" priority="99">
+      <formula>LEN(TRIM(AW242))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX215:AY215 BA215 AX217 BA217 AX219:BA219 AX221 AX223 AX227 AX231 AX235">
+    <cfRule type="notContainsBlanks" dxfId="93" priority="100">
+      <formula>LEN(TRIM(AX215))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE242:BF242 BH242:BK242">
+    <cfRule type="notContainsBlanks" dxfId="89" priority="97">
+      <formula>LEN(TRIM(BE242))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF215:BG215 BI215 BF217 BI217 BF219:BI219 BF221 BF223 BF227 BF231 BF235">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="98">
+      <formula>LEN(TRIM(BF215))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW159:AX159 AZ159:BC159">
+    <cfRule type="notContainsBlanks" dxfId="87" priority="39">
+      <formula>LEN(TRIM(AW159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW164:AX164 AZ164:BC164">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="38">
+      <formula>LEN(TRIM(AW164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW169:AX169 AZ169:BC169">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="37">
+      <formula>LEN(TRIM(AW169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW174:AX174 AZ174:BC174">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="36">
+      <formula>LEN(TRIM(AW174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW179:AX179">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="35">
+      <formula>LEN(TRIM(AW179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW184:AX184">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="32">
+      <formula>LEN(TRIM(AW184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW189:AX189">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="31">
+      <formula>LEN(TRIM(AW189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX132:AY132 BA132 AX134 BA134 AX136:BA136 AX138 AX140 AX144 AX148 AX152">
     <cfRule type="notContainsBlanks" dxfId="80" priority="40">
-      <formula>LEN(TRIM(AB199))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG66:AH66 AJ66:AM66">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="119">
-      <formula>LEN(TRIM(AG66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG71:AH71">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="118">
-      <formula>LEN(TRIM(AG71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG76:AH76">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="117">
-      <formula>LEN(TRIM(AG76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG81:AH81">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="116">
-      <formula>LEN(TRIM(AG81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG242:AH242 AJ242:AM242">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="16">
-      <formula>LEN(TRIM(AG242))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AI39 AK39 AH41 AK41 AH43:AK43 AH45 AH47 AH51 AH55 AH59">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="120">
-      <formula>LEN(TRIM(AH39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH215:AI215 AK215 AH217 AK217 AH219:AK219 AH221 AH223 AH227 AH231 AH235">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="17">
-      <formula>LEN(TRIM(AH215))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ71:AM71">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="109">
-      <formula>LEN(TRIM(AJ71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ76:AM76">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="110">
-      <formula>LEN(TRIM(AJ76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ81:AM81">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="111">
-      <formula>LEN(TRIM(AJ81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO242:AP242 AR242:AU242">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="14">
-      <formula>LEN(TRIM(AO242))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP215:AQ215 AS215 AP217 AS217 AP219:AS219 AP221 AP223 AP227 AP231 AP235">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="15">
-      <formula>LEN(TRIM(AP215))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW242:AX242 AZ242:BC242">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="12">
-      <formula>LEN(TRIM(AW242))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX215:AY215 BA215 AX217 BA217 AX219:BA219 AX221 AX223 AX227 AX231 AX235">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="13">
-      <formula>LEN(TRIM(AX215))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE242:BF242 BH242:BK242">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="10">
-      <formula>LEN(TRIM(BE242))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF215:BG215 BI215 BF217 BI217 BF219:BI219 BF221 BF223 BF227 BF231 BF235">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="11">
-      <formula>LEN(TRIM(BF215))&gt;0</formula>
+      <formula>LEN(TRIM(AX132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ179:BC179">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="34">
+      <formula>LEN(TRIM(AZ179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ184:BC184">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="33">
+      <formula>LEN(TRIM(AZ184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ189:BC189">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="30">
+      <formula>LEN(TRIM(AZ189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE159:BF159 BH159:BK159">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="28">
+      <formula>LEN(TRIM(BE159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE164:BF164 BH164:BK164">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="27">
+      <formula>LEN(TRIM(BE164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE169:BF169 BH169:BK169">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="26">
+      <formula>LEN(TRIM(BE169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE174:BF174 BH174:BK174">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="25">
+      <formula>LEN(TRIM(BE174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE179:BF179">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="24">
+      <formula>LEN(TRIM(BE179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE184:BF184">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="21">
+      <formula>LEN(TRIM(BE184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE189:BF189">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="20">
+      <formula>LEN(TRIM(BE189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF132:BG132 BI132 BF134 BI134 BF136:BI136 BF138 BF140 BF144 BF148 BF152">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="29">
+      <formula>LEN(TRIM(BF132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH179:BK179">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="23">
+      <formula>LEN(TRIM(BH179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH184:BK184">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="22">
+      <formula>LEN(TRIM(BH184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH189:BK189">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="19">
+      <formula>LEN(TRIM(BH189))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM159:BN159 BP159:BS159">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="17">
+      <formula>LEN(TRIM(BM159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM164:BN164 BP164:BS164">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="16">
+      <formula>LEN(TRIM(BM164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM169:BN169 BP169:BS169">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="15">
+      <formula>LEN(TRIM(BM169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM174:BN174 BP174:BS174">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="14">
+      <formula>LEN(TRIM(BM174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM179:BN179">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="13">
+      <formula>LEN(TRIM(BM179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM184:BN184">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="10">
+      <formula>LEN(TRIM(BM184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN132:BO132 BQ132 BN134 BQ134 BN136:BQ136 BN138 BN140 BN144 BN148 BN152">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="18">
+      <formula>LEN(TRIM(BN132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP179:BS179">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="12">
+      <formula>LEN(TRIM(BP179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP184:BS184">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="11">
+      <formula>LEN(TRIM(BP184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU159:BV159 BX159:CA159">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="8">
+      <formula>LEN(TRIM(BU159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU164:BV164 BX164:CA164">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="7">
+      <formula>LEN(TRIM(BU164))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU169:BV169 BX169:CA169">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="6">
+      <formula>LEN(TRIM(BU169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU174:BV174 BX174:CA174">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="5">
+      <formula>LEN(TRIM(BU174))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU179:BV179">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="4">
+      <formula>LEN(TRIM(BU179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU184:BV184">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="1">
+      <formula>LEN(TRIM(BU184))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV132:BW132 BY132 BV134 BY134 BV136:BY136 BV138 BV140 BV144 BV148 BV152">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="9">
+      <formula>LEN(TRIM(BV132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX179:CA179">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="3">
+      <formula>LEN(TRIM(BX179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX184:CA184">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="2">
+      <formula>LEN(TRIM(BX184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 M5 U5 E39 M39 U39 AC39 AK39 E98 M98 E132 M132 U132 AC132 E215 M215 U215 AC215 AK215 AS215 BA215 BI215 E249 M249 U249 E283" xr:uid="{488F4E3C-C7F6-4C09-942B-D1036C03543A}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 M5 U5 E39 M39 U39 AC39 AK39 E98 M98 E132 M132 U132 AC132 E215 M215 U215 AC215 AK215 AS215 BA215 BI215 E249 M249 U249 E283 AK132 AS132 BA132 BI132 BQ132 BY132" xr:uid="{488F4E3C-C7F6-4C09-942B-D1036C03543A}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 M7 U7 E41 M41 U41 AC41 AK41 E100 M100 E134 M134 U134 AC134 E217 M217 U217 AC217 AK217 AS217 BA217 BI217 E251 M251 U251 E285" xr:uid="{1AD79DF9-A886-4BBE-9512-7FDE16686EAE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 M7 U7 E41 M41 U41 AC41 AK41 E100 M100 E134 M134 U134 AC134 E217 M217 U217 AC217 AK217 AS217 BA217 BI217 E251 M251 U251 E285 AK134 AS134 BA134 BI134 BQ134 BY134" xr:uid="{1AD79DF9-A886-4BBE-9512-7FDE16686EAE}">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14765,8 +19025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E481EC-19BF-4341-BE8B-4141D5CDB0A1}">
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK64" sqref="AK64"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17174,273 +21434,243 @@
     <mergeCell ref="W46:X48"/>
   </mergeCells>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="64">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="63">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="63">
       <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="62">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="62">
       <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51 D51:G51">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="61">
       <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 E5 B7 E7 B9:E9 B11 B13 B17 B21 B25 A31:B31">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="65">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="65">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:G31">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="52">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:G36">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="53">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:G41">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="54">
       <formula>LEN(TRIM(D41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:G46">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="55">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="55">
       <formula>LEN(TRIM(D46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36 L36:O36">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="59">
       <formula>LEN(TRIM(I36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J41 L41:O41">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="58">
       <formula>LEN(TRIM(I41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46 L46:O46">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="57">
       <formula>LEN(TRIM(I46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:J51 L51:O51">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="56">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="56">
       <formula>LEN(TRIM(I51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="8">
+      <formula>LEN(TRIM(J7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5:K5 M5 M7 J9:M9 J11 J13 J17 J21 J25 I31:J31">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="60">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="60">
       <formula>LEN(TRIM(I5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:O31">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="46">
       <formula>LEN(TRIM(L31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:R36 T36:U36 W36">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="50">
+  <conditionalFormatting sqref="Q36:R36">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="50">
       <formula>LEN(TRIM(Q36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41:R41 T41:U41 W41">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="49">
+  <conditionalFormatting sqref="Q41:R41">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="49">
       <formula>LEN(TRIM(Q41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q46:R46 T46:U46 W46">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="48">
+  <conditionalFormatting sqref="Q46:R46">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="48">
       <formula>LEN(TRIM(Q46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:R51 T51:W51">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="47">
       <formula>LEN(TRIM(Q51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5 U5 U7 R9:U9 R11 R13 R17 R21 R25 Q31:R31 W31">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="51">
+  <conditionalFormatting sqref="R7">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="7">
+      <formula>LEN(TRIM(R7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:S5 U5 U7 R9:U9 R11 R13 R17 R21 R25 Q31:R31">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="51">
       <formula>LEN(TRIM(Q5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:U31">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="44">
+  <conditionalFormatting sqref="T31:W31">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="39">
       <formula>LEN(TRIM(T31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T36:W36">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="40">
+      <formula>LEN(TRIM(T36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41:W41">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="41">
+      <formula>LEN(TRIM(T41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46:W46">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="42">
+      <formula>LEN(TRIM(T46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="43">
       <formula>LEN(TRIM(U54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V46">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="42">
-      <formula>LEN(TRIM(V46))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="41">
-      <formula>LEN(TRIM(V41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V36">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="40">
-      <formula>LEN(TRIM(V36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V31">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="39">
-      <formula>LEN(TRIM(V31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y36:Z36 AE36 AB36:AC36">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="27">
+  <conditionalFormatting sqref="Y36:Z36">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="27">
       <formula>LEN(TRIM(Y36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41:Z41 AB41:AC41 AE41">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="26">
+  <conditionalFormatting sqref="Y41:Z41">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="26">
       <formula>LEN(TRIM(Y41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y46:Z46 AB46:AC46 AE46">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="25">
+  <conditionalFormatting sqref="Y46:Z46">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="25">
       <formula>LEN(TRIM(Y46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y51:Z51 AB51:AE51">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="24">
       <formula>LEN(TRIM(Y51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:AA5 AC5 AC7 Z9:AC9 Z11 Z13 Z17 Z25 Y31:Z31 AE31 Z21">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="28">
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="6">
+      <formula>LEN(TRIM(Z7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AA5 AC5 AC7 Z9:AC9 Z11 Z13 Z17 Z21 Z25 Y31:Z31">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="28">
       <formula>LEN(TRIM(Y5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31:AC31">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="23">
+  <conditionalFormatting sqref="AB31:AE31">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="19">
       <formula>LEN(TRIM(AB31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD46">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="22">
-      <formula>LEN(TRIM(AD46))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="21">
-      <formula>LEN(TRIM(AD41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
-      <formula>LEN(TRIM(AD36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(AD31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36 AM36">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="17">
+  <conditionalFormatting sqref="AB36:AE36">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="20">
+      <formula>LEN(TRIM(AB36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41:AE41">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="21">
+      <formula>LEN(TRIM(AB41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB46:AE46">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="22">
+      <formula>LEN(TRIM(AB46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36:AH36">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(AG36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AH41 AM41 AJ41:AK41">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
+  <conditionalFormatting sqref="AG41:AH41">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="16">
       <formula>LEN(TRIM(AG41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AH46 AM46 AJ46:AK46">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+  <conditionalFormatting sqref="AG46:AH46">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
       <formula>LEN(TRIM(AG46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG51:AH51 AJ51:AM51">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="14">
       <formula>LEN(TRIM(AG51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AI5 AK5 AK7 AH9:AK9 AH11 AH13 AH17 AH21 AH25 AG31:AH31 AM31">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="18">
+  <conditionalFormatting sqref="AG56:AH56 AJ56:AM56">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(AG56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(AH7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AI5 AK5 AK7 AH9:AK9 AH11 AH13 AH17 AH21 AH25 AG31:AH31">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="18">
       <formula>LEN(TRIM(AG5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31:AK31">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
+  <conditionalFormatting sqref="AJ31:AM31">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="9">
       <formula>LEN(TRIM(AJ31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL46">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(AL46))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL41">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(AL41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(AL36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(AL31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(R7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(Z7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(AH7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(AH36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="AJ36:AM36">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(AJ36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(AK36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG56:AH56 AJ56:AM56">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(AG56))&gt;0</formula>
+  <conditionalFormatting sqref="AJ41:AM41">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(AJ41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ46:AM46">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12">
+      <formula>LEN(TRIM(AJ46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
